--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="веники" sheetId="1" r:id="rId1"/>
-    <sheet name="вёдра" sheetId="2" r:id="rId2"/>
+    <sheet name="ведро строительное" sheetId="2" r:id="rId2"/>
+    <sheet name="ведро оцинкованное" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
   <si>
     <t>веник сорго</t>
   </si>
@@ -99,9 +100,6 @@
     <t>ведро строительное</t>
   </si>
   <si>
-    <t>ведро 90 литров</t>
-  </si>
-  <si>
     <t>ведро гибкое строительное</t>
   </si>
   <si>
@@ -217,6 +215,273 @@
   </si>
   <si>
     <t>строительное ведро цена</t>
+  </si>
+  <si>
+    <t>Ведро пластмассовое гибкое строительное для замешивания раствора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведро пластмассовое гибкое строительное 12 л </t>
+  </si>
+  <si>
+    <t>пластиковое ведро</t>
+  </si>
+  <si>
+    <t>ведро для строителя</t>
+  </si>
+  <si>
+    <t>круглое ведро строительное</t>
+  </si>
+  <si>
+    <t>строительные ведра</t>
+  </si>
+  <si>
+    <t>Гибкие строительные ведра 12л</t>
+  </si>
+  <si>
+    <t>ведро строительное 12л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное</t>
+  </si>
+  <si>
+    <t>ведра оцинкованные</t>
+  </si>
+  <si>
+    <t>ведра оцинкованные 10 л</t>
+  </si>
+  <si>
+    <t>ведра оцинкованные купить</t>
+  </si>
+  <si>
+    <t>ведра оцинкованные цена</t>
+  </si>
+  <si>
+    <t>ведро 10 литров железное</t>
+  </si>
+  <si>
+    <t>ведро 10л оцинкованное</t>
+  </si>
+  <si>
+    <t>ведро 12 л оцинкованное</t>
+  </si>
+  <si>
+    <t>ведро 12 литров цена</t>
+  </si>
+  <si>
+    <t>ведро 9 литров</t>
+  </si>
+  <si>
+    <t>ведро железное 10 л</t>
+  </si>
+  <si>
+    <t>ведро из оцинкованной стали</t>
+  </si>
+  <si>
+    <t>ведро из оцинкованной стали объем 12 л</t>
+  </si>
+  <si>
+    <t>ведро из оцинкованной стали объем 8 15 л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 10 л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 10 л купить</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 10 л цена</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 12</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 12 л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 12 л купить</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 12 л цена</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 15 л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 15 л цена</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 20 литров</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 3 литра</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 5 л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 5 л купить</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 7 литров</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 9 л</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 9 л цена</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное купить</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное с крышкой</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное цена</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное эпицентр</t>
+  </si>
+  <si>
+    <t>ведро эмалированное</t>
+  </si>
+  <si>
+    <t>ведро эмалированное 10 литров</t>
+  </si>
+  <si>
+    <t>купить ведра оцинкованные</t>
+  </si>
+  <si>
+    <t>купить ведра оцинкованные от производителя</t>
+  </si>
+  <si>
+    <t>купить ведро оцинкованное</t>
+  </si>
+  <si>
+    <t>купить ведро оцинкованное 10 л</t>
+  </si>
+  <si>
+    <t>купить ведро оцинкованное 12 л</t>
+  </si>
+  <si>
+    <t>купить ведро оцинкованное 15 л</t>
+  </si>
+  <si>
+    <t>купить ведро эмалированное 10 л</t>
+  </si>
+  <si>
+    <t>купить оцинкованное ведро</t>
+  </si>
+  <si>
+    <t>купить оцинкованное ведро от производителя</t>
+  </si>
+  <si>
+    <t>купить цинковое ведро</t>
+  </si>
+  <si>
+    <t>объем оцинкованного ведра</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро для воды</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро купить</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро с крышкой</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро цена</t>
+  </si>
+  <si>
+    <t>оцинкованные ведра для цветов</t>
+  </si>
+  <si>
+    <t>оцинкованные ведра от производителя</t>
+  </si>
+  <si>
+    <t>цена ведро оцинкованное</t>
+  </si>
+  <si>
+    <t>цинковое ведро</t>
+  </si>
+  <si>
+    <t>цинковое ведро цена</t>
+  </si>
+  <si>
+    <t>цинковые ведра</t>
+  </si>
+  <si>
+    <t>ведро,</t>
+  </si>
+  <si>
+    <t>відра,</t>
+  </si>
+  <si>
+    <t>відро,</t>
+  </si>
+  <si>
+    <t>ведра,</t>
+  </si>
+  <si>
+    <t>Ведро оцинкованное хозяйственное 12 л,</t>
+  </si>
+  <si>
+    <t>відро оцинковане,</t>
+  </si>
+  <si>
+    <t>відро оцинковане 10л,</t>
+  </si>
+  <si>
+    <t>Відро оцинковане 10 л,</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 10 л,</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное,</t>
+  </si>
+  <si>
+    <t>ведра оцинкованные,</t>
+  </si>
+  <si>
+    <t>ведра оцинкованные 10 л,</t>
+  </si>
+  <si>
+    <t>ведро 10 литров железное,</t>
+  </si>
+  <si>
+    <t>ведро 10л оцинкованное,</t>
+  </si>
+  <si>
+    <t>ведро 12 л оцинкованное,</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 12 л,</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 15 л,</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 5 л,</t>
+  </si>
+  <si>
+    <t>ведро оцинкованное 9 л,</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро,</t>
+  </si>
+  <si>
+    <t>оцинкованное ведро для воды,</t>
+  </si>
+  <si>
+    <t>цинковое ведро,</t>
+  </si>
+  <si>
+    <t>цинковые ведра,</t>
   </si>
 </sst>
 </file>
@@ -788,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +1062,8 @@
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,7 +1074,9 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,9 +1085,14 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="J2"/>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
       <c r="N2"/>
       <c r="Q2" s="4"/>
       <c r="V2"/>
@@ -829,6 +1102,9 @@
       <c r="B3" s="5"/>
       <c r="G3" s="3"/>
       <c r="J3"/>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
       <c r="N3"/>
       <c r="Q3" s="4"/>
       <c r="V3"/>
@@ -840,13 +1116,19 @@
       <c r="E4">
         <v>500</v>
       </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>500</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -856,6 +1138,9 @@
       <c r="E6">
         <v>50</v>
       </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -864,6 +1149,9 @@
       <c r="E7">
         <v>50</v>
       </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -872,6 +1160,9 @@
       <c r="E8">
         <v>50</v>
       </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -880,13 +1171,19 @@
       <c r="E9">
         <v>50</v>
       </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -896,10 +1193,13 @@
       <c r="E11">
         <v>50</v>
       </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -910,21 +1210,30 @@
       <c r="E12">
         <v>50</v>
       </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -934,128 +1243,146 @@
       <c r="E15">
         <v>50</v>
       </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>44</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
       </c>
       <c r="B30">
         <v>50</v>
@@ -1063,7 +1390,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -1071,7 +1398,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>50</v>
@@ -1079,7 +1406,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>50</v>
@@ -1087,7 +1414,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>50</v>
@@ -1095,7 +1422,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>50</v>
@@ -1103,7 +1430,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>50</v>
@@ -1111,7 +1438,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>50</v>
@@ -1119,7 +1446,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -1127,7 +1454,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>50</v>
@@ -1135,7 +1462,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>50</v>
@@ -1143,7 +1470,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>50</v>
@@ -1151,7 +1478,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -1165,5 +1492,587 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B61">
+    <sortCondition descending="1" ref="B4:B61"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="веники" sheetId="1" r:id="rId1"/>
     <sheet name="ведро строительное" sheetId="2" r:id="rId2"/>
     <sheet name="ведро оцинкованное" sheetId="3" r:id="rId3"/>
+    <sheet name="лопата штыковая" sheetId="4" r:id="rId4"/>
+    <sheet name="совковая лопата" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="381">
   <si>
     <t>веник сорго</t>
   </si>
@@ -482,6 +484,693 @@
   </si>
   <si>
     <t>цинковые ведра,</t>
+  </si>
+  <si>
+    <t>лопата штыковая</t>
+  </si>
+  <si>
+    <t>штыковая лопата</t>
+  </si>
+  <si>
+    <t>intertool ft 2013</t>
+  </si>
+  <si>
+    <t>plantic fiskars</t>
+  </si>
+  <si>
+    <t>truper 17177</t>
+  </si>
+  <si>
+    <t>truper лопата</t>
+  </si>
+  <si>
+    <t>выбор штыковой лопаты</t>
+  </si>
+  <si>
+    <t>изогнутая лопата</t>
+  </si>
+  <si>
+    <t>качественная штыковая лопата</t>
+  </si>
+  <si>
+    <t>купить лопата штыковая</t>
+  </si>
+  <si>
+    <t>купить лопату трупер</t>
+  </si>
+  <si>
+    <t>купить лопату штыковую с черенком</t>
+  </si>
+  <si>
+    <t>купить садовую лопату</t>
+  </si>
+  <si>
+    <t>купить титановую лопату</t>
+  </si>
+  <si>
+    <t>купить хорошую штыковую лопату</t>
+  </si>
+  <si>
+    <t>купить штык лопату</t>
+  </si>
+  <si>
+    <t>купить штыковую лопату fiskars</t>
+  </si>
+  <si>
+    <t>купить штыковую лопату фискарс</t>
+  </si>
+  <si>
+    <t>лопата для земляных работ</t>
+  </si>
+  <si>
+    <t>лопата для копа облегченная</t>
+  </si>
+  <si>
+    <t>лопата для рытья траншей купить</t>
+  </si>
+  <si>
+    <t>лопата зубр титан</t>
+  </si>
+  <si>
+    <t>лопата кузбасс 1545</t>
+  </si>
+  <si>
+    <t>лопата металлическая штыковая</t>
+  </si>
+  <si>
+    <t>лопата нержавейка</t>
+  </si>
+  <si>
+    <t>лопата нержавейка купить</t>
+  </si>
+  <si>
+    <t>лопата облегченная</t>
+  </si>
+  <si>
+    <t>лопата облегченная штыковая</t>
+  </si>
+  <si>
+    <t>лопата подборочная</t>
+  </si>
+  <si>
+    <t>лопата пожарная</t>
+  </si>
+  <si>
+    <t>лопата пожарная штыковая</t>
+  </si>
+  <si>
+    <t>лопата прямоугольная</t>
+  </si>
+  <si>
+    <t>лопата рельсовая</t>
+  </si>
+  <si>
+    <t>лопата с зубьями</t>
+  </si>
+  <si>
+    <t>лопата с изогнутой тулейкой</t>
+  </si>
+  <si>
+    <t>лопата с нержавейки</t>
+  </si>
+  <si>
+    <t>лопата садовая fiskars</t>
+  </si>
+  <si>
+    <t>лопата садовая узкая</t>
+  </si>
+  <si>
+    <t>лопата садовая штыковая</t>
+  </si>
+  <si>
+    <t>лопата совковая fiskars solid укороченная</t>
+  </si>
+  <si>
+    <t>лопата совковая металлическая с черенком</t>
+  </si>
+  <si>
+    <t>лопата совковая облегченная</t>
+  </si>
+  <si>
+    <t>лопата совковая титановая</t>
+  </si>
+  <si>
+    <t>лопата совковая штыковая</t>
+  </si>
+  <si>
+    <t>лопата титан</t>
+  </si>
+  <si>
+    <t>лопата титановая зубр</t>
+  </si>
+  <si>
+    <t>лопата титановая совковая</t>
+  </si>
+  <si>
+    <t>лопата титановая фискарс</t>
+  </si>
+  <si>
+    <t>лопата титановая штыковая</t>
+  </si>
+  <si>
+    <t>лопата титановая штыковая купить</t>
+  </si>
+  <si>
+    <t>лопата траншейная купить</t>
+  </si>
+  <si>
+    <t>лопата трупер</t>
+  </si>
+  <si>
+    <t>лопата трупер купить</t>
+  </si>
+  <si>
+    <t>лопата укороченная</t>
+  </si>
+  <si>
+    <t>лопата усиленная штыковая вечная 1306</t>
+  </si>
+  <si>
+    <t>лопата фискарс укороченная</t>
+  </si>
+  <si>
+    <t>лопата фискарс штыковая</t>
+  </si>
+  <si>
+    <t>лопата цельнометаллическая штыковая</t>
+  </si>
+  <si>
+    <t>лопата штыкова</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars light</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars solid</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars solid 131413</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars solid plus</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars solid prof</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars solid купить</t>
+  </si>
+  <si>
+    <t>лопата штыковая fiskars купить</t>
+  </si>
+  <si>
+    <t>лопата штыковая gardena</t>
+  </si>
+  <si>
+    <t>лопата штыковая geolia</t>
+  </si>
+  <si>
+    <t>лопата штыковая palisad</t>
+  </si>
+  <si>
+    <t>лопата штыковая solid</t>
+  </si>
+  <si>
+    <t>лопата штыковая solid prof</t>
+  </si>
+  <si>
+    <t>лопата штыковая truper</t>
+  </si>
+  <si>
+    <t>лопата штыковая автомобильная</t>
+  </si>
+  <si>
+    <t>лопата штыковая дренажная</t>
+  </si>
+  <si>
+    <t>лопата штыковая зубр</t>
+  </si>
+  <si>
+    <t>лопата штыковая и совковая</t>
+  </si>
+  <si>
+    <t>лопата штыковая изогнутая</t>
+  </si>
+  <si>
+    <t>лопата штыковая квадратная</t>
+  </si>
+  <si>
+    <t>лопата штыковая кузбасс</t>
+  </si>
+  <si>
+    <t>лопата штыковая купить</t>
+  </si>
+  <si>
+    <t>лопата штыковая малая</t>
+  </si>
+  <si>
+    <t>лопата штыковая металлическая</t>
+  </si>
+  <si>
+    <t>лопата штыковая нержавейка</t>
+  </si>
+  <si>
+    <t>лопата штыковая нержавейка цена</t>
+  </si>
+  <si>
+    <t>лопата штыковая облегченная</t>
+  </si>
+  <si>
+    <t>лопата штыковая облегченная fiskars</t>
+  </si>
+  <si>
+    <t>лопата штыковая остроконечная</t>
+  </si>
+  <si>
+    <t>лопата штыковая плоская</t>
+  </si>
+  <si>
+    <t>лопата штыковая пожарная</t>
+  </si>
+  <si>
+    <t>лопата штыковая прямоугольная</t>
+  </si>
+  <si>
+    <t>лопата штыковая рельсовая</t>
+  </si>
+  <si>
+    <t>лопата штыковая с деревянным черенком</t>
+  </si>
+  <si>
+    <t>лопата штыковая с металлическим черенком</t>
+  </si>
+  <si>
+    <t>лопата штыковая с прорезями</t>
+  </si>
+  <si>
+    <t>лопата штыковая с ребрами жесткости</t>
+  </si>
+  <si>
+    <t>лопата штыковая с ручкой</t>
+  </si>
+  <si>
+    <t>лопата штыковая с черенком</t>
+  </si>
+  <si>
+    <t>лопата штыковая с черенком купить</t>
+  </si>
+  <si>
+    <t>лопата штыковая с черенком цена</t>
+  </si>
+  <si>
+    <t>лопата штыковая садовая</t>
+  </si>
+  <si>
+    <t>лопата штыковая саперная</t>
+  </si>
+  <si>
+    <t>лопата штыковая сибртех</t>
+  </si>
+  <si>
+    <t>лопата штыковая складная</t>
+  </si>
+  <si>
+    <t>лопата штыковая советская</t>
+  </si>
+  <si>
+    <t>лопата штыковая совковая</t>
+  </si>
+  <si>
+    <t>лопата штыковая ссср</t>
+  </si>
+  <si>
+    <t>лопата штыковая стоимость</t>
+  </si>
+  <si>
+    <t>лопата штыковая телескопическая</t>
+  </si>
+  <si>
+    <t>лопата штыковая титановая</t>
+  </si>
+  <si>
+    <t>лопата штыковая титановая купить</t>
+  </si>
+  <si>
+    <t>лопата штыковая укороченная</t>
+  </si>
+  <si>
+    <t>лопата штыковая укороченная fiskars</t>
+  </si>
+  <si>
+    <t>лопата штыковая укороченная fiskars solid</t>
+  </si>
+  <si>
+    <t>лопата штыковая универсальная</t>
+  </si>
+  <si>
+    <t>лопата штыковая усиленная</t>
+  </si>
+  <si>
+    <t>лопата штыковая фискарс</t>
+  </si>
+  <si>
+    <t>лопата штыковая фискарс купить</t>
+  </si>
+  <si>
+    <t>лопата штыковая цена</t>
+  </si>
+  <si>
+    <t>лопата штыковая центроинструмент</t>
+  </si>
+  <si>
+    <t>лопата штыковая ціна</t>
+  </si>
+  <si>
+    <t>лопата штыковая эпицентр</t>
+  </si>
+  <si>
+    <t>лопаты совковые и штыковые</t>
+  </si>
+  <si>
+    <t>лопаты трупер</t>
+  </si>
+  <si>
+    <t>лопаты штыковая</t>
+  </si>
+  <si>
+    <t>лопаты штыковые купить</t>
+  </si>
+  <si>
+    <t>лопаты штыковые цена</t>
+  </si>
+  <si>
+    <t>лучшая штыковая лопата</t>
+  </si>
+  <si>
+    <t>лучшие штыковые лопаты</t>
+  </si>
+  <si>
+    <t>облегченная лопата</t>
+  </si>
+  <si>
+    <t>облегченная лопата fiskars</t>
+  </si>
+  <si>
+    <t>острая лопата</t>
+  </si>
+  <si>
+    <t>размер стандартной штыковой лопаты</t>
+  </si>
+  <si>
+    <t>размер штыка лопаты</t>
+  </si>
+  <si>
+    <t>размер штыковой лопаты</t>
+  </si>
+  <si>
+    <t>садовая лопата fiskars</t>
+  </si>
+  <si>
+    <t>садовая лопата фискарс</t>
+  </si>
+  <si>
+    <t>садовая штыковая лопата</t>
+  </si>
+  <si>
+    <t>совковую лопату</t>
+  </si>
+  <si>
+    <t>стоимость лопаты штыковой</t>
+  </si>
+  <si>
+    <t>стоимость совковой лопаты</t>
+  </si>
+  <si>
+    <t>телескопическая лопата фискарс</t>
+  </si>
+  <si>
+    <t>телескопическая штыковая лопата fiskars</t>
+  </si>
+  <si>
+    <t>титановая лопата</t>
+  </si>
+  <si>
+    <t>титановая лопата fiskars</t>
+  </si>
+  <si>
+    <t>титановая лопата для копа</t>
+  </si>
+  <si>
+    <t>титановая лопата для огорода</t>
+  </si>
+  <si>
+    <t>титановая лопата для снега</t>
+  </si>
+  <si>
+    <t>титановая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>титановая лопата купить</t>
+  </si>
+  <si>
+    <t>титановая лопата фискарс</t>
+  </si>
+  <si>
+    <t>титановая лопата цена</t>
+  </si>
+  <si>
+    <t>титановая лопата штыковая</t>
+  </si>
+  <si>
+    <t>титановая снеговая лопата</t>
+  </si>
+  <si>
+    <t>титановая штыковая лопата</t>
+  </si>
+  <si>
+    <t>трупер лопата</t>
+  </si>
+  <si>
+    <t>фиберглассовый черенок</t>
+  </si>
+  <si>
+    <t>фиберглассовый черенок купить</t>
+  </si>
+  <si>
+    <t>хорошая штыковая лопата</t>
+  </si>
+  <si>
+    <t>цена лопата штыковая</t>
+  </si>
+  <si>
+    <t>цена лопаты штыковой</t>
+  </si>
+  <si>
+    <t>цена штыковой лопаты</t>
+  </si>
+  <si>
+    <t>ширина лопаты штыковой</t>
+  </si>
+  <si>
+    <t>ширина штыка лопаты</t>
+  </si>
+  <si>
+    <t>ширина штыковой лопаты</t>
+  </si>
+  <si>
+    <t>штык лопата</t>
+  </si>
+  <si>
+    <t>штык лопата купить</t>
+  </si>
+  <si>
+    <t>штыкова лопата</t>
+  </si>
+  <si>
+    <t>штыковая</t>
+  </si>
+  <si>
+    <t>штыковая лопата fiskars</t>
+  </si>
+  <si>
+    <t>штыковая лопата купить</t>
+  </si>
+  <si>
+    <t>штыковая лопата титановая</t>
+  </si>
+  <si>
+    <t>штыковая лопата фискарс</t>
+  </si>
+  <si>
+    <t>штыковая лопата цена</t>
+  </si>
+  <si>
+    <t>лопата</t>
+  </si>
+  <si>
+    <t>лопати</t>
+  </si>
+  <si>
+    <t>Лопати для города</t>
+  </si>
+  <si>
+    <t>Лопата копальная остроконечная лко</t>
+  </si>
+  <si>
+    <t>лопата лко</t>
+  </si>
+  <si>
+    <t>Лопата штыковая копальная</t>
+  </si>
+  <si>
+    <t>Лопата штыковая заступ</t>
+  </si>
+  <si>
+    <t>Штыковая лопата без черенка</t>
+  </si>
+  <si>
+    <t>Лопата штыковая остроконечная универсальная для земляных работ</t>
+  </si>
+  <si>
+    <t>совковая лопата</t>
+  </si>
+  <si>
+    <t>лопата совковая</t>
+  </si>
+  <si>
+    <t>большая совковая лопата</t>
+  </si>
+  <si>
+    <t>купить лопата совковая</t>
+  </si>
+  <si>
+    <t>купить лопата совковая с черенком</t>
+  </si>
+  <si>
+    <t>купить совковые лопаты</t>
+  </si>
+  <si>
+    <t>лопата железная совковая</t>
+  </si>
+  <si>
+    <t>лопата подборная</t>
+  </si>
+  <si>
+    <t>лопата подборная цена</t>
+  </si>
+  <si>
+    <t>лопата совкова</t>
+  </si>
+  <si>
+    <t>лопата совковая без черенка</t>
+  </si>
+  <si>
+    <t>лопата совковая без черенка цена</t>
+  </si>
+  <si>
+    <t>лопата совковая большая</t>
+  </si>
+  <si>
+    <t>лопата совковая гост</t>
+  </si>
+  <si>
+    <t>лопата совковая для снега</t>
+  </si>
+  <si>
+    <t>лопата совковая купить</t>
+  </si>
+  <si>
+    <t>лопата совковая металлическая</t>
+  </si>
+  <si>
+    <t>лопата совковая песочная</t>
+  </si>
+  <si>
+    <t>лопата совковая рельсовая</t>
+  </si>
+  <si>
+    <t>лопата совковая с деревянным черенком</t>
+  </si>
+  <si>
+    <t>лопата совковая с ребрами жесткости</t>
+  </si>
+  <si>
+    <t>лопата совковая с ручкой</t>
+  </si>
+  <si>
+    <t>лопата совковая с черенком</t>
+  </si>
+  <si>
+    <t>лопата совковая с черенком гост</t>
+  </si>
+  <si>
+    <t>лопата совковая с черенком купить</t>
+  </si>
+  <si>
+    <t>лопата совковая с черенком цена</t>
+  </si>
+  <si>
+    <t>лопата совковая стоимость</t>
+  </si>
+  <si>
+    <t>лопата совковая усиленная</t>
+  </si>
+  <si>
+    <t>лопата совковая цена</t>
+  </si>
+  <si>
+    <t>лопата совковая щебеночная</t>
+  </si>
+  <si>
+    <t>лопата совково штыковая</t>
+  </si>
+  <si>
+    <t>лопата шуфельная</t>
+  </si>
+  <si>
+    <t>лопаты совковые</t>
+  </si>
+  <si>
+    <t>лопаты совковые купить</t>
+  </si>
+  <si>
+    <t>лопаты совковые с черенком</t>
+  </si>
+  <si>
+    <t>лопаты совковые цена</t>
+  </si>
+  <si>
+    <t>рельсовая лопата</t>
+  </si>
+  <si>
+    <t>совкова лопата</t>
+  </si>
+  <si>
+    <t>совковая</t>
+  </si>
+  <si>
+    <t>совковая лопата для снега</t>
+  </si>
+  <si>
+    <t>совковая лопата купить</t>
+  </si>
+  <si>
+    <t>совковая лопата цена</t>
+  </si>
+  <si>
+    <t>цена лопата совковая</t>
+  </si>
+  <si>
+    <t>цена совковой лопаты</t>
+  </si>
+  <si>
+    <t>Большая совковая лопата</t>
+  </si>
+  <si>
+    <t>Лопата совковая подборная металлическая</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,4 +2764,1934 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>203</v>
+      </c>
+      <c r="R4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>275</v>
+      </c>
+      <c r="R5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="K28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="K29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>284</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>285</v>
+      </c>
+      <c r="B116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>288</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>293</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>294</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>296</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>299</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>300</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>301</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>303</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>304</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>305</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>306</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>307</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>309</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>312</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>324</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B230">
+    <sortCondition descending="1" ref="B4:B230"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B56">
+    <sortCondition descending="1" ref="B4:B56"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="веники" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ведро оцинкованное" sheetId="3" r:id="rId3"/>
     <sheet name="лопата штыковая" sheetId="4" r:id="rId4"/>
     <sheet name="совковая лопата" sheetId="5" r:id="rId5"/>
+    <sheet name="лопата снегоуборочная" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="547">
   <si>
     <t>веник сорго</t>
   </si>
@@ -1167,10 +1168,508 @@
     <t>цена совковой лопаты</t>
   </si>
   <si>
-    <t>Большая совковая лопата</t>
-  </si>
-  <si>
-    <t>Лопата совковая подборная металлическая</t>
+    <t>Лопата совкова ЛСП, усиленная с ребрами жесткости</t>
+  </si>
+  <si>
+    <t>Лопата совкова ЛСП подборная металлическая щебеночная</t>
+  </si>
+  <si>
+    <t>совковая лопата,</t>
+  </si>
+  <si>
+    <t>лопата совковая,</t>
+  </si>
+  <si>
+    <t>лопата совкова,</t>
+  </si>
+  <si>
+    <t>совкова лопата,</t>
+  </si>
+  <si>
+    <t>совковую лопату,</t>
+  </si>
+  <si>
+    <t>большая совковая лопата,</t>
+  </si>
+  <si>
+    <t>лопата железная совковая,</t>
+  </si>
+  <si>
+    <t>лопата подборная,</t>
+  </si>
+  <si>
+    <t>лопата рельсовая,</t>
+  </si>
+  <si>
+    <t>лопата совковая без черенка,</t>
+  </si>
+  <si>
+    <t>лопата совковая большая,</t>
+  </si>
+  <si>
+    <t>лопата совковая металлическая,</t>
+  </si>
+  <si>
+    <t>лопата совковая металлическая с черенком,</t>
+  </si>
+  <si>
+    <t>лопата совковая песочная,</t>
+  </si>
+  <si>
+    <t>лопата совковая рельсовая,</t>
+  </si>
+  <si>
+    <t>лопата совковая с деревянным черенком,</t>
+  </si>
+  <si>
+    <t>лопата совковая с ребрами жесткости,</t>
+  </si>
+  <si>
+    <t>лопата совковая с ручкой,</t>
+  </si>
+  <si>
+    <t>лопата совковая с черенком,</t>
+  </si>
+  <si>
+    <t>лопата совковая усиленная,</t>
+  </si>
+  <si>
+    <t>лопата совковая штыковая,</t>
+  </si>
+  <si>
+    <t>лопата совковая щебеночная,</t>
+  </si>
+  <si>
+    <t>лопата совково штыковая,</t>
+  </si>
+  <si>
+    <t>лопата штыковая и совковая,</t>
+  </si>
+  <si>
+    <t>лопата штыковая совковая,</t>
+  </si>
+  <si>
+    <t>лопата шуфельная,</t>
+  </si>
+  <si>
+    <t>лопаты совковые,</t>
+  </si>
+  <si>
+    <t>лопаты совковые и штыковые,</t>
+  </si>
+  <si>
+    <t>лопаты совковые с черенком,</t>
+  </si>
+  <si>
+    <t>рельсовая лопата,</t>
+  </si>
+  <si>
+    <t>совковая,</t>
+  </si>
+  <si>
+    <t>лопата совок,</t>
+  </si>
+  <si>
+    <t>лопата ЛСП,</t>
+  </si>
+  <si>
+    <t>Лопата совковая коминтерн,</t>
+  </si>
+  <si>
+    <t>Лопати для города,</t>
+  </si>
+  <si>
+    <t>лопата,</t>
+  </si>
+  <si>
+    <t>совковая лопата Коминтер,</t>
+  </si>
+  <si>
+    <t>Лопата совковая лсп,</t>
+  </si>
+  <si>
+    <t>подборная лопата,</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>greenworks снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>автоматическая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>автоматическая снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>аккумуляторная лопата для снега</t>
+  </si>
+  <si>
+    <t>аккумуляторная лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>аккумуляторная лопата для уборки снега greenworks</t>
+  </si>
+  <si>
+    <t>аккумуляторная снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>алюминиевая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>бензиновая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>бензиновая снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>купить аккумуляторную снегоуборочную лопату</t>
+  </si>
+  <si>
+    <t>купить алюминиевую лопату для уборки снега</t>
+  </si>
+  <si>
+    <t>купить лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>купить лопата снегоуборочная</t>
+  </si>
+  <si>
+    <t>купить лопату для снега на колесах</t>
+  </si>
+  <si>
+    <t>купить лопату для уборки</t>
+  </si>
+  <si>
+    <t>купить лопату для уборки снега</t>
+  </si>
+  <si>
+    <t>купить лопату для уборки снега на колесах</t>
+  </si>
+  <si>
+    <t>купить лопату для чистки снега</t>
+  </si>
+  <si>
+    <t>купить лопату на колесах для уборки снега</t>
+  </si>
+  <si>
+    <t>купить лопату снегоуборочную</t>
+  </si>
+  <si>
+    <t>купить лопату со шнеком для уборки снега</t>
+  </si>
+  <si>
+    <t>купить металлическую лопату для уборки снега</t>
+  </si>
+  <si>
+    <t>купить снегоуборочную лопату</t>
+  </si>
+  <si>
+    <t>купить снегоуборочную лопату на аккумуляторе</t>
+  </si>
+  <si>
+    <t>купить снегоуборочную лопату на колесах</t>
+  </si>
+  <si>
+    <t>купить широкую лопату для снега</t>
+  </si>
+  <si>
+    <t>купить широкую лопату для уборки снега</t>
+  </si>
+  <si>
+    <t>купить шнековую лопату для снега</t>
+  </si>
+  <si>
+    <t>купить электролопату</t>
+  </si>
+  <si>
+    <t>купить электролопату для снега</t>
+  </si>
+  <si>
+    <t>купить электролопату для уборки снега</t>
+  </si>
+  <si>
+    <t>куплю лопату для уборки снега</t>
+  </si>
+  <si>
+    <t>лопата для снега со шнеком</t>
+  </si>
+  <si>
+    <t>лопата для снега со шнеком купить</t>
+  </si>
+  <si>
+    <t>лопата для снега электрическая</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега из поликарбоната</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега купить</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега металл</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега на колесах</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега на колёсах</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега на уаз</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега пластиковая с черенком</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега с изогнутой ручкой</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега с крыш</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега с крыши купить</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега с мотором</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега со шнеком</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега цена</t>
+  </si>
+  <si>
+    <t>лопата для уборки снега электрическая</t>
+  </si>
+  <si>
+    <t>лопата для чистки снега</t>
+  </si>
+  <si>
+    <t>лопата к мотоблоку для уборки снега</t>
+  </si>
+  <si>
+    <t>лопата металлическая для снега</t>
+  </si>
+  <si>
+    <t>лопата металлическая для снега купить</t>
+  </si>
+  <si>
+    <t>лопата на аккумуляторе для уборки снега</t>
+  </si>
+  <si>
+    <t>лопата на колесах для уборки снега</t>
+  </si>
+  <si>
+    <t>лопата пластиковая снегоуборочная</t>
+  </si>
+  <si>
+    <t>лопата снеговая на колесах</t>
+  </si>
+  <si>
+    <t>лопата снеговая электрическая</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная fiskars</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная автомобильная</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная аккумуляторная</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная алюминиевая</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная деревянная</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная купить</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная леруа мерлен</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная металлическая</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная на колесах</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная пластиковая</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная пластиковая с черенком</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная с черенком</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная цена</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная широкая</t>
+  </si>
+  <si>
+    <t>лопата снегоуборочная электрическая</t>
+  </si>
+  <si>
+    <t>лопата со шнеком для снега</t>
+  </si>
+  <si>
+    <t>лопата со шнеком для уборки снега</t>
+  </si>
+  <si>
+    <t>лопата со шнеком для уборки снега купить</t>
+  </si>
+  <si>
+    <t>лопата электрическая для снега</t>
+  </si>
+  <si>
+    <t>лопата электрическая для уборки снега</t>
+  </si>
+  <si>
+    <t>лопаты для уборки снега металлические</t>
+  </si>
+  <si>
+    <t>лопаты для чистки снега купить</t>
+  </si>
+  <si>
+    <t>лопаты снегоуборочные</t>
+  </si>
+  <si>
+    <t>лучшая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>металлическая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>металлические лопаты для уборки снега</t>
+  </si>
+  <si>
+    <t>механическая снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>роторная лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>ручная снегоуборочная лопата на колесах</t>
+  </si>
+  <si>
+    <t>самодельные снегоуборочные лопаты</t>
+  </si>
+  <si>
+    <t>снегоочистительная лопата</t>
+  </si>
+  <si>
+    <t>снегоуборочная аккумуляторная лопата</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата fiskars</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата greenworks</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата аккумуляторная</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата бензиновая</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата из триммера</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата купить</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на аккумуляторе</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на аккумуляторе купить</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на колесах</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на колесах купить</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на колесах электромаш</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на колёсах</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата на машину</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата с колесами</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата со шнеком</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата со шнеком купить</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата фискарс</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата цена</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата электрическая</t>
+  </si>
+  <si>
+    <t>снегоуборочная лопата электрическая купить</t>
+  </si>
+  <si>
+    <t>снегоуборочная электрическая лопата</t>
+  </si>
+  <si>
+    <t>снегоуборочные лопаты фискарс</t>
+  </si>
+  <si>
+    <t>снегоуборщик электрический лопата</t>
+  </si>
+  <si>
+    <t>снігоприбиральна лопата</t>
+  </si>
+  <si>
+    <t>чудо лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>шнековая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>эл лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>электрическая лопата для снега</t>
+  </si>
+  <si>
+    <t>электрическая лопата для уборки снега</t>
+  </si>
+  <si>
+    <t>электрическая лопата для уборки снега цена</t>
+  </si>
+  <si>
+    <t>электрическая лопата для чистки снега</t>
+  </si>
+  <si>
+    <t>электрическая снегоуборочная лопата</t>
+  </si>
+  <si>
+    <t>Лопата снегоуборочная пластиковая с черенком</t>
+  </si>
+  <si>
+    <t>Снегоуборочная лопата пластиковая с черенком</t>
   </si>
 </sst>
 </file>
@@ -4258,16 +4757,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,6 +4791,574 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>380</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="J4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="J5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="J7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B56">
+    <sortCondition descending="1" ref="B4:B56"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="G2" s="3"/>
       <c r="J2"/>
@@ -4313,13 +5381,13 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -4327,13 +5395,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -4341,55 +5409,55 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>458</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>465</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>466</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -4397,13 +5465,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -4411,13 +5479,13 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -4425,13 +5493,13 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>490</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -4439,13 +5507,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>491</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -4453,13 +5521,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -4467,13 +5535,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -4481,13 +5549,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="B16">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>503</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -4495,13 +5563,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="B17">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>352</v>
+        <v>511</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -4509,189 +5577,788 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>355</v>
-      </c>
-      <c r="E20">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E21">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>357</v>
-      </c>
-      <c r="E22">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>362</v>
-      </c>
-      <c r="E23">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="B24">
         <v>50</v>
       </c>
-      <c r="D24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25">
+      <c r="A25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E26">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27">
+      <c r="A27" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28">
+      <c r="A28" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>366</v>
-      </c>
-      <c r="E29">
+      <c r="A29" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>367</v>
-      </c>
-      <c r="E30">
+      <c r="A30" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31">
+      <c r="A31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>369</v>
-      </c>
-      <c r="E32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>373</v>
-      </c>
-      <c r="E34">
+      <c r="A32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>456</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>457</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>462</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>463</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>467</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>469</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>470</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>471</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>473</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>474</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>475</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>476</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>479</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>480</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>482</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>484</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>485</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>486</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>488</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>495</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>496</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>497</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>498</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>499</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>501</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>502</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>504</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>505</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>507</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>508</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>509</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>512</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>513</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>515</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>516</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>518</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>520</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>522</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>523</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>524</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>525</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>527</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>529</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>531</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>532</v>
+      </c>
+      <c r="B102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>534</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>536</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>537</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>538</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>539</v>
+      </c>
+      <c r="B109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>540</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>541</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>542</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>543</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>544</v>
+      </c>
+      <c r="B114">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:B56">
-    <sortCondition descending="1" ref="B4:B56"/>
+  <sortState ref="A4:B140">
+    <sortCondition descending="1" ref="B4:B140"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="веники" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="лопата штыковая" sheetId="4" r:id="rId4"/>
     <sheet name="совковая лопата" sheetId="5" r:id="rId5"/>
     <sheet name="лопата снегоуборочная" sheetId="6" r:id="rId6"/>
+    <sheet name="грабли" sheetId="7" r:id="rId7"/>
+    <sheet name="черенки для лопат" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="882">
   <si>
     <t>веник сорго</t>
   </si>
@@ -1670,6 +1672,1011 @@
   </si>
   <si>
     <t>Снегоуборочная лопата пластиковая с черенком</t>
+  </si>
+  <si>
+    <t>грабли</t>
+  </si>
+  <si>
+    <t>грабли для газона</t>
+  </si>
+  <si>
+    <t>купить грабли</t>
+  </si>
+  <si>
+    <t>грабли веерные</t>
+  </si>
+  <si>
+    <t>веерные грабли</t>
+  </si>
+  <si>
+    <t>грабли купить</t>
+  </si>
+  <si>
+    <t>grabli</t>
+  </si>
+  <si>
+    <t>аэраторные грабли</t>
+  </si>
+  <si>
+    <t>бамбуковые грабли</t>
+  </si>
+  <si>
+    <t>большие грабли</t>
+  </si>
+  <si>
+    <t>веерные грабли для газона</t>
+  </si>
+  <si>
+    <t>веерные грабли купить</t>
+  </si>
+  <si>
+    <t>веерные грабли цена</t>
+  </si>
+  <si>
+    <t>вилы грабли</t>
+  </si>
+  <si>
+    <t>вилы и грабли</t>
+  </si>
+  <si>
+    <t>витые грабли</t>
+  </si>
+  <si>
+    <t>газонные грабли</t>
+  </si>
+  <si>
+    <t>грабли 2022</t>
+  </si>
+  <si>
+    <t>грабли аэраторные</t>
+  </si>
+  <si>
+    <t>грабли большие</t>
+  </si>
+  <si>
+    <t>грабли веерные купить</t>
+  </si>
+  <si>
+    <t>грабли веерные маленькие</t>
+  </si>
+  <si>
+    <t>грабли веерные металлические</t>
+  </si>
+  <si>
+    <t>грабли веерные пластиковые</t>
+  </si>
+  <si>
+    <t>грабли веерные пластиковые с черенком</t>
+  </si>
+  <si>
+    <t>грабли веерные пластинчатые</t>
+  </si>
+  <si>
+    <t>грабли веерные пластмассовые</t>
+  </si>
+  <si>
+    <t>грабли веерные проволочные</t>
+  </si>
+  <si>
+    <t>грабли веерные регулируемые</t>
+  </si>
+  <si>
+    <t>грабли веерные с компенсатором</t>
+  </si>
+  <si>
+    <t>грабли веерные с черенком</t>
+  </si>
+  <si>
+    <t>грабли веерные с черенком цена</t>
+  </si>
+  <si>
+    <t>грабли веерные цена</t>
+  </si>
+  <si>
+    <t>грабли вилы</t>
+  </si>
+  <si>
+    <t>грабли витые</t>
+  </si>
+  <si>
+    <t>грабли витые с черенком</t>
+  </si>
+  <si>
+    <t>грабли газонные</t>
+  </si>
+  <si>
+    <t>грабли деревянные</t>
+  </si>
+  <si>
+    <t>грабли деревянные купить</t>
+  </si>
+  <si>
+    <t>грабли детские металлические</t>
+  </si>
+  <si>
+    <t>грабли для аэрации газона</t>
+  </si>
+  <si>
+    <t>грабли для аэрации газона купить</t>
+  </si>
+  <si>
+    <t>грабли для брусники</t>
+  </si>
+  <si>
+    <t>грабли для выравнивания газона</t>
+  </si>
+  <si>
+    <t>грабли для выравнивания грунта</t>
+  </si>
+  <si>
+    <t>грабли для выравнивания земли</t>
+  </si>
+  <si>
+    <t>грабли для вычесывания газона</t>
+  </si>
+  <si>
+    <t>грабли для вычесывания травы</t>
+  </si>
+  <si>
+    <t>грабли для газона купить</t>
+  </si>
+  <si>
+    <t>грабли для грядок</t>
+  </si>
+  <si>
+    <t>грабли для дачи</t>
+  </si>
+  <si>
+    <t>грабли для земли</t>
+  </si>
+  <si>
+    <t>грабли для искусственного газона</t>
+  </si>
+  <si>
+    <t>грабли для картошки</t>
+  </si>
+  <si>
+    <t>грабли для клюквы</t>
+  </si>
+  <si>
+    <t>грабли для комнатных растений</t>
+  </si>
+  <si>
+    <t>грабли для крыши</t>
+  </si>
+  <si>
+    <t>грабли для культиватора</t>
+  </si>
+  <si>
+    <t>грабли для листвы</t>
+  </si>
+  <si>
+    <t>грабли для листьев пластмассовые</t>
+  </si>
+  <si>
+    <t>грабли для листя</t>
+  </si>
+  <si>
+    <t>грабли для огорода</t>
+  </si>
+  <si>
+    <t>грабли для очистки газонов</t>
+  </si>
+  <si>
+    <t>грабли для прополки</t>
+  </si>
+  <si>
+    <t>грабли для прочесывания газона</t>
+  </si>
+  <si>
+    <t>грабли для рыбалки</t>
+  </si>
+  <si>
+    <t>грабли для рыхления почвы</t>
+  </si>
+  <si>
+    <t>грабли для сада</t>
+  </si>
+  <si>
+    <t>грабли для сбора клюквы</t>
+  </si>
+  <si>
+    <t>грабли для сбора листвы</t>
+  </si>
+  <si>
+    <t>грабли для сбора листьев</t>
+  </si>
+  <si>
+    <t>грабли для сбора сена</t>
+  </si>
+  <si>
+    <t>грабли для сбора травы</t>
+  </si>
+  <si>
+    <t>грабли для сбора ягод</t>
+  </si>
+  <si>
+    <t>грабли для сбора ягод купить</t>
+  </si>
+  <si>
+    <t>грабли для сена</t>
+  </si>
+  <si>
+    <t>грабли для сена купить</t>
+  </si>
+  <si>
+    <t>грабли для сена ручные</t>
+  </si>
+  <si>
+    <t>грабли для скарификации</t>
+  </si>
+  <si>
+    <t>грабли для скарификации газона</t>
+  </si>
+  <si>
+    <t>грабли для скошенной травы</t>
+  </si>
+  <si>
+    <t>грабли для снега</t>
+  </si>
+  <si>
+    <t>грабли для снега с крыши</t>
+  </si>
+  <si>
+    <t>грабли для снежной крыши</t>
+  </si>
+  <si>
+    <t>грабли для срезания травы</t>
+  </si>
+  <si>
+    <t>грабли для сухой травы</t>
+  </si>
+  <si>
+    <t>грабли для травы</t>
+  </si>
+  <si>
+    <t>грабли для уборки листвы</t>
+  </si>
+  <si>
+    <t>грабли для уборки сена</t>
+  </si>
+  <si>
+    <t>грабли для уборки снега</t>
+  </si>
+  <si>
+    <t>грабли для уборки снега с крыши</t>
+  </si>
+  <si>
+    <t>грабли для уборки травы</t>
+  </si>
+  <si>
+    <t>грабли для цветов</t>
+  </si>
+  <si>
+    <t>грабли для черники</t>
+  </si>
+  <si>
+    <t>грабли для черники купить</t>
+  </si>
+  <si>
+    <t>грабли для ягод</t>
+  </si>
+  <si>
+    <t>грабли для японского сада</t>
+  </si>
+  <si>
+    <t>грабли железные</t>
+  </si>
+  <si>
+    <t>грабли железные цена</t>
+  </si>
+  <si>
+    <t>грабли из нержавейки</t>
+  </si>
+  <si>
+    <t>грабли лопаты</t>
+  </si>
+  <si>
+    <t>грабли маленькие</t>
+  </si>
+  <si>
+    <t>грабли маленькие садовые</t>
+  </si>
+  <si>
+    <t>грабли металлические</t>
+  </si>
+  <si>
+    <t>грабли металлические с черенком</t>
+  </si>
+  <si>
+    <t>грабли на колесах</t>
+  </si>
+  <si>
+    <t>грабли огородные</t>
+  </si>
+  <si>
+    <t>грабли пластиковые</t>
+  </si>
+  <si>
+    <t>грабли пластиковые веерные</t>
+  </si>
+  <si>
+    <t>грабли пластиковые для сена</t>
+  </si>
+  <si>
+    <t>грабли пластиковые купить</t>
+  </si>
+  <si>
+    <t>грабли пластмассовые</t>
+  </si>
+  <si>
+    <t>грабли пластмассовые купить</t>
+  </si>
+  <si>
+    <t>грабли проволочные</t>
+  </si>
+  <si>
+    <t>грабли ручные</t>
+  </si>
+  <si>
+    <t>грабли с лезвием</t>
+  </si>
+  <si>
+    <t>грабли с ножами</t>
+  </si>
+  <si>
+    <t>грабли с черенком</t>
+  </si>
+  <si>
+    <t>грабли с черенком цена</t>
+  </si>
+  <si>
+    <t>грабли садовые</t>
+  </si>
+  <si>
+    <t>грабли садовые веерные</t>
+  </si>
+  <si>
+    <t>грабли садовые купить</t>
+  </si>
+  <si>
+    <t>грабли садовые маленькие</t>
+  </si>
+  <si>
+    <t>грабли садовые металлические</t>
+  </si>
+  <si>
+    <t>грабли садовые пластиковые</t>
+  </si>
+  <si>
+    <t>грабли садовые с черенком</t>
+  </si>
+  <si>
+    <t>грабли садовые цена</t>
+  </si>
+  <si>
+    <t>грабли сенные</t>
+  </si>
+  <si>
+    <t>грабли сеноуборочные</t>
+  </si>
+  <si>
+    <t>грабли сеноуборочные для мотоблока</t>
+  </si>
+  <si>
+    <t>грабли складные</t>
+  </si>
+  <si>
+    <t>грабли стальные</t>
+  </si>
+  <si>
+    <t>грабли телескопические</t>
+  </si>
+  <si>
+    <t>грабли титановые</t>
+  </si>
+  <si>
+    <t>грабли цена</t>
+  </si>
+  <si>
+    <t>грабли широкие</t>
+  </si>
+  <si>
+    <t>грабли штыревые</t>
+  </si>
+  <si>
+    <t>грабли электрические</t>
+  </si>
+  <si>
+    <t>граблі сапа</t>
+  </si>
+  <si>
+    <t>деревянные грабли</t>
+  </si>
+  <si>
+    <t>деревянные грабли для сена</t>
+  </si>
+  <si>
+    <t>деревянные грабли для сена купить</t>
+  </si>
+  <si>
+    <t>деревянные грабли купить</t>
+  </si>
+  <si>
+    <t>железные грабли</t>
+  </si>
+  <si>
+    <t>комбайн грабли для сбора ягод</t>
+  </si>
+  <si>
+    <t>купить веерные грабли</t>
+  </si>
+  <si>
+    <t>купить вилы и грабли</t>
+  </si>
+  <si>
+    <t>купить грабли веерные</t>
+  </si>
+  <si>
+    <t>купить грабли веерные пластиковые</t>
+  </si>
+  <si>
+    <t>купить грабли для вычесывания газона</t>
+  </si>
+  <si>
+    <t>купить грабли для газона</t>
+  </si>
+  <si>
+    <t>купить грабли для сбора ягод</t>
+  </si>
+  <si>
+    <t>купить грабли для сена</t>
+  </si>
+  <si>
+    <t>купить грабли для сена ручные</t>
+  </si>
+  <si>
+    <t>купить грабли для уборки листьев</t>
+  </si>
+  <si>
+    <t>купить грабли металлические</t>
+  </si>
+  <si>
+    <t>купить грабли пластиковые</t>
+  </si>
+  <si>
+    <t>купить грабли пластмассовые</t>
+  </si>
+  <si>
+    <t>купить грабли садовые</t>
+  </si>
+  <si>
+    <t>купить маленькие грабли</t>
+  </si>
+  <si>
+    <t>купить пластиковые грабли</t>
+  </si>
+  <si>
+    <t>купить пластиковые грабли для сена</t>
+  </si>
+  <si>
+    <t>купить пластмассовые грабли</t>
+  </si>
+  <si>
+    <t>купить садовые грабли</t>
+  </si>
+  <si>
+    <t>купить финские грабли для сбора ягод</t>
+  </si>
+  <si>
+    <t>куплю грабли</t>
+  </si>
+  <si>
+    <t>ландшафтные грабли</t>
+  </si>
+  <si>
+    <t>лопаты грабли</t>
+  </si>
+  <si>
+    <t>маленькие грабли</t>
+  </si>
+  <si>
+    <t>маленькие садовые грабли</t>
+  </si>
+  <si>
+    <t>мелкие грабли</t>
+  </si>
+  <si>
+    <t>металлические грабли</t>
+  </si>
+  <si>
+    <t>мини грабли</t>
+  </si>
+  <si>
+    <t>мини грабли для сада</t>
+  </si>
+  <si>
+    <t>мини грабли купить</t>
+  </si>
+  <si>
+    <t>на грабли</t>
+  </si>
+  <si>
+    <t>острые грабли</t>
+  </si>
+  <si>
+    <t>перчатки грабли</t>
+  </si>
+  <si>
+    <t>пластиковые грабли</t>
+  </si>
+  <si>
+    <t>пластиковые грабли для листьев</t>
+  </si>
+  <si>
+    <t>пластмассовые грабли</t>
+  </si>
+  <si>
+    <t>продажа граблей для уборки сена</t>
+  </si>
+  <si>
+    <t>продам грабли</t>
+  </si>
+  <si>
+    <t>ручные грабли</t>
+  </si>
+  <si>
+    <t>ручные грабли для сена</t>
+  </si>
+  <si>
+    <t>садовые грабли</t>
+  </si>
+  <si>
+    <t>садовые грабли веерные</t>
+  </si>
+  <si>
+    <t>садовые грабли купить</t>
+  </si>
+  <si>
+    <t>садовые грабли цена</t>
+  </si>
+  <si>
+    <t>сапа граблі</t>
+  </si>
+  <si>
+    <t>сапка грабли</t>
+  </si>
+  <si>
+    <t>сенные грабли</t>
+  </si>
+  <si>
+    <t>складные грабли</t>
+  </si>
+  <si>
+    <t>снежные грабли</t>
+  </si>
+  <si>
+    <t>снежные грабли для крыши купить</t>
+  </si>
+  <si>
+    <t>тайские грабли</t>
+  </si>
+  <si>
+    <t>титановые грабли</t>
+  </si>
+  <si>
+    <t>титановые грабли купить</t>
+  </si>
+  <si>
+    <t>финские грабли</t>
+  </si>
+  <si>
+    <t>финские грабли для сбора ягод</t>
+  </si>
+  <si>
+    <t>хорошие грабли</t>
+  </si>
+  <si>
+    <t>цена грабли</t>
+  </si>
+  <si>
+    <t>чудо грабли</t>
+  </si>
+  <si>
+    <t>широкие грабли</t>
+  </si>
+  <si>
+    <t>электрические грабли</t>
+  </si>
+  <si>
+    <t>электрические грабли для газона</t>
+  </si>
+  <si>
+    <t>электро грабли</t>
+  </si>
+  <si>
+    <t>японские грабли</t>
+  </si>
+  <si>
+    <t>Веерные садовые грабли</t>
+  </si>
+  <si>
+    <t>грабли,</t>
+  </si>
+  <si>
+    <t>грабли для газона,</t>
+  </si>
+  <si>
+    <t>грабли веерные,</t>
+  </si>
+  <si>
+    <t>веерные грабли,</t>
+  </si>
+  <si>
+    <t>грабли веерные металлические,</t>
+  </si>
+  <si>
+    <t>грабли для выравнивания газона,</t>
+  </si>
+  <si>
+    <t>грабли для вычесывания газона,</t>
+  </si>
+  <si>
+    <t>грабли для листя,</t>
+  </si>
+  <si>
+    <t>грабли для скарификации газона,</t>
+  </si>
+  <si>
+    <t>грабли для травы,</t>
+  </si>
+  <si>
+    <t>грабли пластиковые,</t>
+  </si>
+  <si>
+    <t>грабли садовые,</t>
+  </si>
+  <si>
+    <t>большие грабли,</t>
+  </si>
+  <si>
+    <t>веерные грабли для газона,</t>
+  </si>
+  <si>
+    <t>газонные грабли,</t>
+  </si>
+  <si>
+    <t>грабли веерные пластиковые,</t>
+  </si>
+  <si>
+    <t>грабли веерные пластиковые с черенком,</t>
+  </si>
+  <si>
+    <t>грабли веерные пластинчатые,</t>
+  </si>
+  <si>
+    <t>грабли веерные пластмассовые,</t>
+  </si>
+  <si>
+    <t>грабли веерные проволочные,</t>
+  </si>
+  <si>
+    <t>грабли веерные регулируемые,</t>
+  </si>
+  <si>
+    <t>грабли веерные с черенком,</t>
+  </si>
+  <si>
+    <t>грабли газонные,</t>
+  </si>
+  <si>
+    <t>грабли для выравнивания грунта,</t>
+  </si>
+  <si>
+    <t>грабли для выравнивания земли,</t>
+  </si>
+  <si>
+    <t>грабли для вычесывания травы,</t>
+  </si>
+  <si>
+    <t>грабли для грядок,</t>
+  </si>
+  <si>
+    <t>грабли для дачи,</t>
+  </si>
+  <si>
+    <t>грабли для земли,</t>
+  </si>
+  <si>
+    <t>грабли для искусственного газона,</t>
+  </si>
+  <si>
+    <t>грабли для картошки,</t>
+  </si>
+  <si>
+    <t>грабли для листвы,</t>
+  </si>
+  <si>
+    <t>грабли для листьев пластмассовые,</t>
+  </si>
+  <si>
+    <t>грабли для огорода,</t>
+  </si>
+  <si>
+    <t>грабли для очистки газонов,</t>
+  </si>
+  <si>
+    <t>грабли для прополки,</t>
+  </si>
+  <si>
+    <t>грабли для прочесывания газона,</t>
+  </si>
+  <si>
+    <t>грабли огородные,</t>
+  </si>
+  <si>
+    <t>грабли пластиковые веерные,</t>
+  </si>
+  <si>
+    <t>грабли пластмассовые,</t>
+  </si>
+  <si>
+    <t>грабли с черенком,</t>
+  </si>
+  <si>
+    <t>грабли садовые веерные,</t>
+  </si>
+  <si>
+    <t>грабли садовые металлические,</t>
+  </si>
+  <si>
+    <t>грабли садовые пластиковые,</t>
+  </si>
+  <si>
+    <t>грабли садовые с черенком,</t>
+  </si>
+  <si>
+    <t>грабли широкие,</t>
+  </si>
+  <si>
+    <t>грабли штыревые,</t>
+  </si>
+  <si>
+    <t>грабли пластмассовые купить,</t>
+  </si>
+  <si>
+    <t>грабли ручные,</t>
+  </si>
+  <si>
+    <t>деревянные грабли для сена,</t>
+  </si>
+  <si>
+    <t>железные грабли,</t>
+  </si>
+  <si>
+    <t>ландшафтные грабли,</t>
+  </si>
+  <si>
+    <t>металлические грабли,</t>
+  </si>
+  <si>
+    <t>садовые грабли,</t>
+  </si>
+  <si>
+    <t>садовые грабли веерные,</t>
+  </si>
+  <si>
+    <t>хорошие грабли,</t>
+  </si>
+  <si>
+    <t>Садово-огородний инвертарь,</t>
+  </si>
+  <si>
+    <t>граблі,</t>
+  </si>
+  <si>
+    <t>Грабли веерные пластинчатые металлические,</t>
+  </si>
+  <si>
+    <t>грабли веерные плоский зуб,</t>
+  </si>
+  <si>
+    <t>черенки для лопат</t>
+  </si>
+  <si>
+    <t>алюминиевый черенок для лопаты</t>
+  </si>
+  <si>
+    <t>деревянный черенок</t>
+  </si>
+  <si>
+    <t>из чего делают черенки для лопат</t>
+  </si>
+  <si>
+    <t>изготовление черенков для лопат</t>
+  </si>
+  <si>
+    <t>купить черенки для лопат</t>
+  </si>
+  <si>
+    <t>купить черенки для лопат оптом</t>
+  </si>
+  <si>
+    <t>купить черенок для лопат</t>
+  </si>
+  <si>
+    <t>купить черенок оптом</t>
+  </si>
+  <si>
+    <t>куплю черенки для лопат</t>
+  </si>
+  <si>
+    <t>куплю черенки для лопат оптом</t>
+  </si>
+  <si>
+    <t>лопата felicita</t>
+  </si>
+  <si>
+    <t>лопата finland 1243</t>
+  </si>
+  <si>
+    <t>лопата zinler</t>
+  </si>
+  <si>
+    <t>лопата для снега сахара</t>
+  </si>
+  <si>
+    <t>лопата для снега феличита</t>
+  </si>
+  <si>
+    <t>лопата из пружинной стали</t>
+  </si>
+  <si>
+    <t>лопата снеговая алюминий</t>
+  </si>
+  <si>
+    <t>лопата снеговая дюралевая</t>
+  </si>
+  <si>
+    <t>лопата снеговая оранжевая</t>
+  </si>
+  <si>
+    <t>лопата снеговая пластиковая цена</t>
+  </si>
+  <si>
+    <t>лопата снеговая пластмассовая</t>
+  </si>
+  <si>
+    <t>лопата снеговая усиленная</t>
+  </si>
+  <si>
+    <t>лопата снеговая феличита</t>
+  </si>
+  <si>
+    <t>лопата фанерная</t>
+  </si>
+  <si>
+    <t>лопата черенок</t>
+  </si>
+  <si>
+    <t>пластиковый черенок для лопаты</t>
+  </si>
+  <si>
+    <t>пластмассовая лопата</t>
+  </si>
+  <si>
+    <t>пластмассовая лопата для снега</t>
+  </si>
+  <si>
+    <t>продам черенки для лопат</t>
+  </si>
+  <si>
+    <t>производители черенков для лопат</t>
+  </si>
+  <si>
+    <t>производство черенков для лопат</t>
+  </si>
+  <si>
+    <t>ручки для лопат</t>
+  </si>
+  <si>
+    <t>телескопический черенок для лопаты</t>
+  </si>
+  <si>
+    <t>феличита лопата</t>
+  </si>
+  <si>
+    <t>черенки для лопат из бука</t>
+  </si>
+  <si>
+    <t>черенки для лопат купить</t>
+  </si>
+  <si>
+    <t>черенки для лопат оптом</t>
+  </si>
+  <si>
+    <t>черенки для лопат оптом от производителя</t>
+  </si>
+  <si>
+    <t>черенки для лопат от производителя</t>
+  </si>
+  <si>
+    <t>черенки для лопат производство</t>
+  </si>
+  <si>
+    <t>черенки для лопат цена</t>
+  </si>
+  <si>
+    <t>черенки лопат</t>
+  </si>
+  <si>
+    <t>черенки от лопат</t>
+  </si>
+  <si>
+    <t>черенок 2 метра</t>
+  </si>
+  <si>
+    <t>черенок 32 мм</t>
+  </si>
+  <si>
+    <t>черенок деревянный для лопаты</t>
+  </si>
+  <si>
+    <t>черенок для вил</t>
+  </si>
+  <si>
+    <t>черенок для лопаты 150 см</t>
+  </si>
+  <si>
+    <t>черенок для лопаты 180 см</t>
+  </si>
+  <si>
+    <t>черенок для лопаты 2 метра</t>
+  </si>
+  <si>
+    <t>черенок для лопаты 40мм</t>
+  </si>
+  <si>
+    <t>черенок для лопаты алюминиевый</t>
+  </si>
+  <si>
+    <t>черенок для лопаты деревянный</t>
+  </si>
+  <si>
+    <t>черенок для лопаты из акации</t>
+  </si>
+  <si>
+    <t>черенок для лопаты из осины</t>
+  </si>
+  <si>
+    <t>черенок для лопаты из ясеня</t>
+  </si>
+  <si>
+    <t>черенок для саперной лопаты</t>
+  </si>
+  <si>
+    <t>черенок для саперной лопаты купить</t>
+  </si>
+  <si>
+    <t>черенок для снеговой лопаты</t>
+  </si>
+  <si>
+    <t>черенок лопаты купить</t>
+  </si>
+  <si>
+    <t>черенок лопаты цена</t>
+  </si>
+  <si>
+    <t>черенок от лопаты купить</t>
+  </si>
+  <si>
+    <t>черенок от лопаты цена</t>
+  </si>
+  <si>
+    <t>черенок саперной лопаты</t>
+  </si>
+  <si>
+    <t>штыковая лопата американка</t>
   </si>
 </sst>
 </file>
@@ -5328,8 +6335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6361,4 +7368,2404 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V174"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>756</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>757</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="K6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="K8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="K11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>626</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="K12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>633</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="K13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="K14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>557</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>579</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>571</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>581</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>584</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>574</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>575</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>586</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>583</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>588</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>592</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="K28" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>594</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="K29" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>602</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>604</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>598</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>612</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="K33" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>613</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>600</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="K34" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>614</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>605</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="K35" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>616</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>606</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="K36" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>617</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>608</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>618</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>609</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="K38" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>619</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>610</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+      <c r="K39" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>620</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>611</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>621</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>653</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>622</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>655</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>658</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="K43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>624</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>664</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="K44" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>625</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>667</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="K45" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>670</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>671</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="K47" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>672</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="K48" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>631</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>682</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="K49" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>632</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>683</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="K50" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>634</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>659</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="K51" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>635</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>661</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>636</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>687</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>637</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>690</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="K54" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>713</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="K55" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>639</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>718</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="K56" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>640</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>732</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="K57" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>641</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>733</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>642</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>747</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="K59" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>643</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>644</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+      <c r="K61" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>645</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>646</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>647</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>648</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>649</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>650</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>651</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>652</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>656</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>657</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>660</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>662</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>663</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>668</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>669</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>673</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>674</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>676</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>677</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>678</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>679</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>680</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>681</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>684</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>685</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>686</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>688</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>689</v>
+      </c>
+      <c r="B102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>691</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>692</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>693</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>694</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>695</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>696</v>
+      </c>
+      <c r="B109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>697</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>698</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>699</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>700</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>701</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>702</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>703</v>
+      </c>
+      <c r="B116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>704</v>
+      </c>
+      <c r="B117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>705</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>706</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>707</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>708</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>709</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>710</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>711</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>712</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>714</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>715</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>716</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>717</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>719</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>720</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>721</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>722</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>723</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>724</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>725</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>726</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>727</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>728</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>729</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>730</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>731</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>734</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>735</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>736</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>737</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>738</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>739</v>
+      </c>
+      <c r="B152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>741</v>
+      </c>
+      <c r="B153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>742</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>743</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>744</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>745</v>
+      </c>
+      <c r="B157">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>746</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>748</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>749</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>750</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>751</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>752</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>753</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>754</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>582</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>603</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>615</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>630</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>665</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>675</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>740</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B211">
+    <sortCondition descending="1" ref="B2:B211"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>818</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>859</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>862</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>828</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>864</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>829</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>865</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>830</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>866</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>867</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>869</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>833</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>871</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>834</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>835</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>836</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>837</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>838</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>839</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>840</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>842</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>843</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>844</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>845</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>847</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>849</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>850</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>852</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>853</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>854</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>855</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>856</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>868</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>870</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>873</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>874</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>875</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>876</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>877</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>878</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>879</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>880</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>881</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B79">
+    <sortCondition descending="1" ref="B4:B79"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="веники" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="лопата снегоуборочная" sheetId="6" r:id="rId6"/>
     <sheet name="грабли" sheetId="7" r:id="rId7"/>
     <sheet name="черенки для лопат" sheetId="8" r:id="rId8"/>
+    <sheet name="швабра с отжимом" sheetId="9" r:id="rId9"/>
+    <sheet name="швабра деревянная" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1209">
   <si>
     <t>веник сорго</t>
   </si>
@@ -2677,6 +2679,987 @@
   </si>
   <si>
     <t>штыковая лопата американка</t>
+  </si>
+  <si>
+    <t>черенок</t>
+  </si>
+  <si>
+    <t>черенки</t>
+  </si>
+  <si>
+    <t>черенки к лопатам</t>
+  </si>
+  <si>
+    <t>черенок к лопате</t>
+  </si>
+  <si>
+    <t>Черенки для лопат и вил</t>
+  </si>
+  <si>
+    <t>Черенки для сап и граблей</t>
+  </si>
+  <si>
+    <t>Черенки деревянные для лопат 40мм</t>
+  </si>
+  <si>
+    <t>швабра с отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>купить швабру с ведром</t>
+  </si>
+  <si>
+    <t>швабра с ведром с автоматическим отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>швабра с ведром с отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром для отжима</t>
+  </si>
+  <si>
+    <t>купить швабру с ведром с отжимом</t>
+  </si>
+  <si>
+    <t>швабра для пола с отжимом</t>
+  </si>
+  <si>
+    <t>швабра с отжимом купить</t>
+  </si>
+  <si>
+    <t>швабра с автоматическим отжимом</t>
+  </si>
+  <si>
+    <t>швабра с самоотжимом</t>
+  </si>
+  <si>
+    <t>самоотжимающаяся швабра</t>
+  </si>
+  <si>
+    <t>швабра cleaner 360</t>
+  </si>
+  <si>
+    <t>швабра с ведром и отжимом</t>
+  </si>
+  <si>
+    <t>boomjoy швабра с вертикальным отжимом</t>
+  </si>
+  <si>
+    <t>enyaa швабра с отжимом</t>
+  </si>
+  <si>
+    <t>flat mop швабра</t>
+  </si>
+  <si>
+    <t>forensis швабра</t>
+  </si>
+  <si>
+    <t>hauswell smart mop</t>
+  </si>
+  <si>
+    <t>spin and go швабра</t>
+  </si>
+  <si>
+    <t>spin mop швабра с отжимом</t>
+  </si>
+  <si>
+    <t>topohome procleansystem</t>
+  </si>
+  <si>
+    <t>zetter швабра купить</t>
+  </si>
+  <si>
+    <t>zetter швабра с отжимом</t>
+  </si>
+  <si>
+    <t>zetter швабра с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>автоматическая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>алиэкспресс швабра с отжимом</t>
+  </si>
+  <si>
+    <t>ведра для мытья полов</t>
+  </si>
+  <si>
+    <t>ведра для мытья полов с отжимом</t>
+  </si>
+  <si>
+    <t>ведра для уборки с отжимом</t>
+  </si>
+  <si>
+    <t>ведра для швабры</t>
+  </si>
+  <si>
+    <t>ведра с отжимом</t>
+  </si>
+  <si>
+    <t>ведра с отжимом для уборки</t>
+  </si>
+  <si>
+    <t>веревочная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>вертикальная швабра</t>
+  </si>
+  <si>
+    <t>выбор швабры с отжимом</t>
+  </si>
+  <si>
+    <t>выбрать швабру с отжимом</t>
+  </si>
+  <si>
+    <t>двухсторонняя швабра с отжимом</t>
+  </si>
+  <si>
+    <t>заказать швабру с ведром</t>
+  </si>
+  <si>
+    <t>заказать швабру с отжимом</t>
+  </si>
+  <si>
+    <t>инновационная швабра</t>
+  </si>
+  <si>
+    <t>интернет магазин швабра с отжимом</t>
+  </si>
+  <si>
+    <t>квадратная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>китайская швабра с отжимом</t>
+  </si>
+  <si>
+    <t>комплект для мытья пола швабра с отжимом</t>
+  </si>
+  <si>
+    <t>комплект для уборки flat mop</t>
+  </si>
+  <si>
+    <t>комплект швабра с ведром</t>
+  </si>
+  <si>
+    <t>комплект швабра с ведром с отжимом</t>
+  </si>
+  <si>
+    <t>корейская швабра с отжимом</t>
+  </si>
+  <si>
+    <t>круглая швабра с ведром</t>
+  </si>
+  <si>
+    <t>круглая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>круглая швабра с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>купить круглую швабру с отжимом</t>
+  </si>
+  <si>
+    <t>купить насадку для швабры с отжимом</t>
+  </si>
+  <si>
+    <t>купить насадку на швабру с отжимом</t>
+  </si>
+  <si>
+    <t>купить недорого швабру с ведром</t>
+  </si>
+  <si>
+    <t>купить профессиональную швабру с отжимом</t>
+  </si>
+  <si>
+    <t>купить самоочищающуюся швабру</t>
+  </si>
+  <si>
+    <t>купить умную швабру с ведром</t>
+  </si>
+  <si>
+    <t>купить хорошую швабру с отжимом</t>
+  </si>
+  <si>
+    <t>купить чудо швабру с отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру zetter</t>
+  </si>
+  <si>
+    <t>купить швабру для мытья полов с отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру для пола с ведром</t>
+  </si>
+  <si>
+    <t>купить швабру для пола с отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру с ведром и отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру с ведром отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру с вертикальным отжимом</t>
+  </si>
+  <si>
+    <t>купить швабру с губкой</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом без ведра</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом в интернет магазине</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом для пола</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом недорого</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом оптом</t>
+  </si>
+  <si>
+    <t>купить швабру с отжимом с ведром</t>
+  </si>
+  <si>
+    <t>купить швабру с самоотжимом</t>
+  </si>
+  <si>
+    <t>купить швабру чистые руки</t>
+  </si>
+  <si>
+    <t>купить швабры с отжимом оптом</t>
+  </si>
+  <si>
+    <t>куплю швабру с отжимом</t>
+  </si>
+  <si>
+    <t>ленивая швабра</t>
+  </si>
+  <si>
+    <t>ленивая швабра с ведром</t>
+  </si>
+  <si>
+    <t>лучшая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>лучшая швабра с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>лучшие профессиональные швабры с отжимом</t>
+  </si>
+  <si>
+    <t>лучшие швабры с ведром и отжимом</t>
+  </si>
+  <si>
+    <t>лучшие швабры с отжимом</t>
+  </si>
+  <si>
+    <t>лучшие швабры с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>механическая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>набор для мытья полов с отжимом</t>
+  </si>
+  <si>
+    <t>набор для мытья полов швабра с отжимом с ведром</t>
+  </si>
+  <si>
+    <t>набор для уборки с отжимом</t>
+  </si>
+  <si>
+    <t>набор швабра с ведром</t>
+  </si>
+  <si>
+    <t>набор швабра с ведром для отжима</t>
+  </si>
+  <si>
+    <t>новая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>отжим для швабры</t>
+  </si>
+  <si>
+    <t>отжимающаяся швабра</t>
+  </si>
+  <si>
+    <t>пепприг швабра</t>
+  </si>
+  <si>
+    <t>плоская швабра с ведром</t>
+  </si>
+  <si>
+    <t>плоская швабра с вертикальным отжимом</t>
+  </si>
+  <si>
+    <t>плоская швабра с отжимом</t>
+  </si>
+  <si>
+    <t>профессиональная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>профессиональные швабры с отжимом</t>
+  </si>
+  <si>
+    <t>профессиональный швабра с отжимом</t>
+  </si>
+  <si>
+    <t>розетка швабра с ведром</t>
+  </si>
+  <si>
+    <t>розетка швабра с отжимом</t>
+  </si>
+  <si>
+    <t>самая лучшая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>самая удобная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>самовыжимающаяся швабра купить</t>
+  </si>
+  <si>
+    <t>самовыжимающиеся швабры</t>
+  </si>
+  <si>
+    <t>самоотжимающаяся швабра купить</t>
+  </si>
+  <si>
+    <t>самоотжимающаяся швабра с ведром</t>
+  </si>
+  <si>
+    <t>самоочищающаяся швабра</t>
+  </si>
+  <si>
+    <t>самоочищающаяся швабра купить</t>
+  </si>
+  <si>
+    <t>самоочищающаяся швабра с ведром</t>
+  </si>
+  <si>
+    <t>самые лучшие швабры с отжимом</t>
+  </si>
+  <si>
+    <t>складная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>спин энд гоу швабра</t>
+  </si>
+  <si>
+    <t>супер швабра с ведром</t>
+  </si>
+  <si>
+    <t>супер швабра с отжимом</t>
+  </si>
+  <si>
+    <t>топ швабр с отжимом</t>
+  </si>
+  <si>
+    <t>топ швабр с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>треугольная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>турбо швабра с ведром spin mop 360</t>
+  </si>
+  <si>
+    <t>турецкая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>удобная швабра с ведром</t>
+  </si>
+  <si>
+    <t>удобная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>умная швабра с ведром</t>
+  </si>
+  <si>
+    <t>умная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>умная швабра с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>универсальная швабра с отжимом</t>
+  </si>
+  <si>
+    <t>х образная швабра</t>
+  </si>
+  <si>
+    <t>хорошая швабра с отжимом</t>
+  </si>
+  <si>
+    <t>хорошие швабры с отжимом</t>
+  </si>
+  <si>
+    <t>чудо швабра с ведром</t>
+  </si>
+  <si>
+    <t>чудо швабра с отжимом</t>
+  </si>
+  <si>
+    <t>чудошвабра</t>
+  </si>
+  <si>
+    <t>швабра 360 градусов</t>
+  </si>
+  <si>
+    <t>швабра 360 с отжимом</t>
+  </si>
+  <si>
+    <t>швабра cleaner 360 із самовіджимом</t>
+  </si>
+  <si>
+    <t>швабра forensis</t>
+  </si>
+  <si>
+    <t>швабра miley</t>
+  </si>
+  <si>
+    <t>швабра spin and go</t>
+  </si>
+  <si>
+    <t>швабра spin mop 360 с турбо отжимом и ведром</t>
+  </si>
+  <si>
+    <t>швабра spin mop купить</t>
+  </si>
+  <si>
+    <t>швабра titan twist</t>
+  </si>
+  <si>
+    <t>швабра zetter купить</t>
+  </si>
+  <si>
+    <t>швабра без отжима</t>
+  </si>
+  <si>
+    <t>швабра веревочная с ведром</t>
+  </si>
+  <si>
+    <t>швабра веревочная с отжимом</t>
+  </si>
+  <si>
+    <t>швабра для ведра с отжимом</t>
+  </si>
+  <si>
+    <t>швабра для ламината с отжимом</t>
+  </si>
+  <si>
+    <t>швабра для мытья пола с отжимом</t>
+  </si>
+  <si>
+    <t>швабра для мытья полов с ведром</t>
+  </si>
+  <si>
+    <t>швабра для пола с ведром</t>
+  </si>
+  <si>
+    <t>швабра для пола с ведром и отжимом</t>
+  </si>
+  <si>
+    <t>швабра для пола с губкой</t>
+  </si>
+  <si>
+    <t>швабра для уборки с отжимом</t>
+  </si>
+  <si>
+    <t>швабра золушка с отжимом</t>
+  </si>
+  <si>
+    <t>швабра из микрофибры с отжимом</t>
+  </si>
+  <si>
+    <t>швабра изи клин</t>
+  </si>
+  <si>
+    <t>швабра круглая без ведра</t>
+  </si>
+  <si>
+    <t>швабра круглая с ведром</t>
+  </si>
+  <si>
+    <t>швабра круглая с отжимом</t>
+  </si>
+  <si>
+    <t>швабра круглая с отжимом и ведром</t>
+  </si>
+  <si>
+    <t>швабра круглая с отжимом купить</t>
+  </si>
+  <si>
+    <t>швабра отжим</t>
+  </si>
+  <si>
+    <t>швабра отжимающаяся</t>
+  </si>
+  <si>
+    <t>швабра отжимная с ведром</t>
+  </si>
+  <si>
+    <t>швабра отжимная с губкой</t>
+  </si>
+  <si>
+    <t>швабра отжимом</t>
+  </si>
+  <si>
+    <t>швабра палубная с отжимом</t>
+  </si>
+  <si>
+    <t>швабра плоская с ведром</t>
+  </si>
+  <si>
+    <t>швабра плоская с отжимом</t>
+  </si>
+  <si>
+    <t>швабра профессиональная с отжимом</t>
+  </si>
+  <si>
+    <t>швабра прямоугольная с отжимом</t>
+  </si>
+  <si>
+    <t>швабра резиновая с отжимом</t>
+  </si>
+  <si>
+    <t>швабра рыжий кот с отжимом</t>
+  </si>
+  <si>
+    <t>швабра с автоматическим отжимом scratch cleaning mop</t>
+  </si>
+  <si>
+    <t>швабра с бесконтактным отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром stenson</t>
+  </si>
+  <si>
+    <t>швабра с ведром без рук</t>
+  </si>
+  <si>
+    <t>швабра с ведром для отжима и полоскания</t>
+  </si>
+  <si>
+    <t>швабра с ведром для отжима чистые руки</t>
+  </si>
+  <si>
+    <t>швабра с ведром золушка</t>
+  </si>
+  <si>
+    <t>швабра с ведром и авто отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром и механическим отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром и отжимом купить</t>
+  </si>
+  <si>
+    <t>швабра с ведром и самоотжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром купить</t>
+  </si>
+  <si>
+    <t>швабра с ведром оптом</t>
+  </si>
+  <si>
+    <t>швабра с ведром отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ведром отжимом центрифугой</t>
+  </si>
+  <si>
+    <t>швабра с ведром розетка</t>
+  </si>
+  <si>
+    <t>швабра с ведром с отжимом купить</t>
+  </si>
+  <si>
+    <t>швабра с ведром с отжимом прямоугольная mop</t>
+  </si>
+  <si>
+    <t>швабра с ведром с педалью</t>
+  </si>
+  <si>
+    <t>швабра с ведром цена</t>
+  </si>
+  <si>
+    <t>швабра с ведром центрифугой</t>
+  </si>
+  <si>
+    <t>швабра с вертикальным отжимом</t>
+  </si>
+  <si>
+    <t>швабра с вращающейся насадкой</t>
+  </si>
+  <si>
+    <t>швабра с губкой</t>
+  </si>
+  <si>
+    <t>швабра с губкой и отжимом</t>
+  </si>
+  <si>
+    <t>швабра с губкой с отжимом</t>
+  </si>
+  <si>
+    <t>швабра с губкой цена</t>
+  </si>
+  <si>
+    <t>швабра с губчатой насадкой</t>
+  </si>
+  <si>
+    <t>швабра с двойным отжимом</t>
+  </si>
+  <si>
+    <t>швабра с круглой насадкой</t>
+  </si>
+  <si>
+    <t>швабра с крутящимся отжимом</t>
+  </si>
+  <si>
+    <t>швабра с механизмом отжима</t>
+  </si>
+  <si>
+    <t>швабра с механическим отжимом</t>
+  </si>
+  <si>
+    <t>швабра с микрофиброй с отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ножным отжимом</t>
+  </si>
+  <si>
+    <t>швабра с отжимным ведром</t>
+  </si>
+  <si>
+    <t>швабра с отжимным механизмом</t>
+  </si>
+  <si>
+    <t>швабра с отжимом boomjoy</t>
+  </si>
+  <si>
+    <t>швабра с отжимом hauswell</t>
+  </si>
+  <si>
+    <t>швабра с отжимом mop</t>
+  </si>
+  <si>
+    <t>швабра с отжимом scratch cleaning mop</t>
+  </si>
+  <si>
+    <t>швабра с отжимом spin and go</t>
+  </si>
+  <si>
+    <t>швабра с отжимом spin mop</t>
+  </si>
+  <si>
+    <t>швабра с отжимом titan twist mop</t>
+  </si>
+  <si>
+    <t>швабра с отжимом zetter</t>
+  </si>
+  <si>
+    <t>швабра с отжимом алиэкспресс</t>
+  </si>
+  <si>
+    <t>швабра с отжимом без ведра</t>
+  </si>
+  <si>
+    <t>швабра с отжимом без ведра купить</t>
+  </si>
+  <si>
+    <t>швабра с отжимом в ведре</t>
+  </si>
+  <si>
+    <t>швабра с отжимом вжух и чисто</t>
+  </si>
+  <si>
+    <t>швабра с отжимом для больших помещений</t>
+  </si>
+  <si>
+    <t>швабра с отжимом для ламината</t>
+  </si>
+  <si>
+    <t>швабра с отжимом для мытья пола</t>
+  </si>
+  <si>
+    <t>швабра с отжимом золушка</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром mop scratch</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром для мытья пола</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром какую выбрать</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром круглая</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром купить</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром купить оптом</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром оптом</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и ведром цена</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и двухкамерным ведром</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и двухкамерным ведром smart mop hauswell</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и полосканием</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и полосканием spin mop</t>
+  </si>
+  <si>
+    <t>швабра с отжимом и складным ведром</t>
+  </si>
+  <si>
+    <t>швабра с отжимом какая лучше</t>
+  </si>
+  <si>
+    <t>швабра с отжимом какую выбрать</t>
+  </si>
+  <si>
+    <t>швабра с отжимом круглая</t>
+  </si>
+  <si>
+    <t>швабра с отжимом круглая без ведра</t>
+  </si>
+  <si>
+    <t>швабра с отжимом купить оптом</t>
+  </si>
+  <si>
+    <t>швабра с отжимом на ручке</t>
+  </si>
+  <si>
+    <t>швабра с отжимом оптом</t>
+  </si>
+  <si>
+    <t>швабра с отжимом плоская</t>
+  </si>
+  <si>
+    <t>швабра с отжимом профессиональная</t>
+  </si>
+  <si>
+    <t>швабра с отжимом розетка</t>
+  </si>
+  <si>
+    <t>швабра с отжимом рыжий кот</t>
+  </si>
+  <si>
+    <t>швабра с отжимом с ведром</t>
+  </si>
+  <si>
+    <t>швабра с отжимом с педалью</t>
+  </si>
+  <si>
+    <t>швабра с отжимом светофор</t>
+  </si>
+  <si>
+    <t>швабра с отжимом соколтек</t>
+  </si>
+  <si>
+    <t>швабра с отжимом твист</t>
+  </si>
+  <si>
+    <t>швабра с отжимом триумф</t>
+  </si>
+  <si>
+    <t>швабра с отжимом цена</t>
+  </si>
+  <si>
+    <t>швабра с отжимом центрифугой</t>
+  </si>
+  <si>
+    <t>швабра с педальным отжимом</t>
+  </si>
+  <si>
+    <t>швабра с педалью</t>
+  </si>
+  <si>
+    <t>швабра с распылителем и отжимом</t>
+  </si>
+  <si>
+    <t>швабра с роликовым отжимом</t>
+  </si>
+  <si>
+    <t>швабра с ручным отжимом</t>
+  </si>
+  <si>
+    <t>швабра с самоотжимом купить</t>
+  </si>
+  <si>
+    <t>швабра с системой отжима</t>
+  </si>
+  <si>
+    <t>швабра с телескопической ручкой и отжимом</t>
+  </si>
+  <si>
+    <t>швабра самовыжимающаяся</t>
+  </si>
+  <si>
+    <t>швабра самоотжимающаяся</t>
+  </si>
+  <si>
+    <t>швабра со складной ручкой</t>
+  </si>
+  <si>
+    <t>швабра спин энд гоу</t>
+  </si>
+  <si>
+    <t>швабра твист</t>
+  </si>
+  <si>
+    <t>швабра твист с отжимом</t>
+  </si>
+  <si>
+    <t>швабра телескопическая с отжимом</t>
+  </si>
+  <si>
+    <t>швабра треугольная с отжимом</t>
+  </si>
+  <si>
+    <t>швабра чистые руки купить</t>
+  </si>
+  <si>
+    <t>швабры для мытья полов с отжимом</t>
+  </si>
+  <si>
+    <t>швабры с ведром и отжимом</t>
+  </si>
+  <si>
+    <t>швабры с ведром отжимом и полосканием купить</t>
+  </si>
+  <si>
+    <t>швабры с отжимом и ведром оптом</t>
+  </si>
+  <si>
+    <t>швабры с отжимом оптом</t>
+  </si>
+  <si>
+    <t>швабры с центрифугой</t>
+  </si>
+  <si>
+    <t>Швабра для мытья пола с отжимом</t>
+  </si>
+  <si>
+    <t>швабра деревянная</t>
+  </si>
+  <si>
+    <t>деревянная швабра</t>
+  </si>
+  <si>
+    <t>деревянная швабра для пола</t>
+  </si>
+  <si>
+    <t>деревянная швабра купить</t>
+  </si>
+  <si>
+    <t>деревянная швабра цена</t>
+  </si>
+  <si>
+    <t>деревянные швабры</t>
+  </si>
+  <si>
+    <t>деревянные швабры для пола</t>
+  </si>
+  <si>
+    <t>купить деревянную швабру</t>
+  </si>
+  <si>
+    <t>купить швабру деревянную</t>
+  </si>
+  <si>
+    <t>швабра деревянная 140 см</t>
+  </si>
+  <si>
+    <t>швабра деревянная 150 см</t>
+  </si>
+  <si>
+    <t>швабра деревянная гост</t>
+  </si>
+  <si>
+    <t>швабра деревянная для мытья пола</t>
+  </si>
+  <si>
+    <t>швабра деревянная для мытья полов</t>
+  </si>
+  <si>
+    <t>швабра деревянная купить</t>
+  </si>
+  <si>
+    <t>швабра деревянная с металлическим зажимом</t>
+  </si>
+  <si>
+    <t>швабра деревянная с черенком</t>
+  </si>
+  <si>
+    <t>швабра деревянная с щеткой</t>
+  </si>
+  <si>
+    <t>швабра деревянная цена</t>
+  </si>
+  <si>
+    <t>швабра для мытья пола деревянная</t>
+  </si>
+  <si>
+    <t>швабра для мытья полов деревянная</t>
+  </si>
+  <si>
+    <t>швабра для пола деревянная</t>
+  </si>
+  <si>
+    <t>швабра для пола с металлическим зажимом</t>
+  </si>
+  <si>
+    <t>швабра обычная деревянная</t>
+  </si>
+  <si>
+    <t>швабра с металлическим зажимом</t>
+  </si>
+  <si>
+    <t>швабра старая деревянная</t>
+  </si>
+  <si>
+    <t>швабры деревянные</t>
+  </si>
+  <si>
+    <t>швабры деревянные для мытья пола</t>
+  </si>
+  <si>
+    <t>щетка швабра деревянная</t>
+  </si>
+  <si>
+    <t>Швабра обычная деревянная для для мытья пола</t>
   </si>
 </sst>
 </file>
@@ -3244,6 +4227,291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B34">
+    <sortCondition descending="1" ref="B4:B34"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
@@ -9170,14 +10438,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9188,7 +10457,685 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>816</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>848</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="K6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>818</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>859</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>862</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>828</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>864</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>829</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>865</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>830</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>866</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>867</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>869</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>833</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>871</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>834</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>872</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>835</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>836</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>837</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>838</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>839</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>840</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>842</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>843</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>844</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>845</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>847</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>849</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>850</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>852</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>853</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>854</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>855</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>856</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>868</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>870</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>873</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>874</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>875</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>876</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>877</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>878</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>879</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>880</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>881</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B79">
+    <sortCondition descending="1" ref="B4:B79"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V291"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1178</v>
+      </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9218,28 +11165,22 @@
       <c r="V3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>817</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
       <c r="D4" t="s">
-        <v>816</v>
+        <v>889</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>819</v>
+        <v>890</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>899</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -9247,13 +11188,13 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>820</v>
+        <v>891</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="D6" t="s">
-        <v>858</v>
+        <v>902</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -9261,27 +11202,27 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>821</v>
+        <v>892</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="D7" t="s">
-        <v>818</v>
+        <v>1115</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>822</v>
+        <v>893</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>841</v>
+        <v>971</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -9289,13 +11230,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>823</v>
+        <v>894</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>859</v>
+        <v>977</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -9303,13 +11244,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>824</v>
+        <v>895</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>860</v>
+        <v>987</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -9317,13 +11258,13 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>825</v>
+        <v>896</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>861</v>
+        <v>1023</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -9331,27 +11272,21 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>826</v>
+        <v>898</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
-        <v>862</v>
+        <v>1024</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>827</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
-        <v>863</v>
+        <v>1042</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -9359,13 +11294,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>828</v>
+        <v>900</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D14" t="s">
-        <v>864</v>
+        <v>1043</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -9373,27 +11308,21 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>829</v>
+        <v>901</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D15" t="s">
-        <v>865</v>
+        <v>1057</v>
       </c>
       <c r="E15">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>830</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
       <c r="D16" t="s">
-        <v>866</v>
+        <v>1058</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -9401,13 +11330,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>831</v>
+        <v>904</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D17" t="s">
-        <v>867</v>
+        <v>1061</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -9415,13 +11344,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>832</v>
+        <v>919</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D18" t="s">
-        <v>869</v>
+        <v>1064</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -9429,13 +11358,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>833</v>
+        <v>922</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D19" t="s">
-        <v>871</v>
+        <v>1066</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -9443,13 +11372,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>834</v>
+        <v>923</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D20" t="s">
-        <v>872</v>
+        <v>1070</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -9457,79 +11386,115 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>835</v>
+        <v>996</v>
       </c>
       <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E21">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>836</v>
+        <v>1013</v>
       </c>
       <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E22">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>837</v>
+        <v>1020</v>
       </c>
       <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E23">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>838</v>
+        <v>1030</v>
       </c>
       <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E24">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>839</v>
+        <v>1051</v>
       </c>
       <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E25">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>1054</v>
       </c>
       <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E26">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27">
+      <c r="D27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E27">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>840</v>
+        <v>1170</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>1177</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>897</v>
       </c>
       <c r="B30">
         <v>50</v>
@@ -9537,7 +11502,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>903</v>
       </c>
       <c r="B31">
         <v>50</v>
@@ -9545,7 +11510,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>905</v>
       </c>
       <c r="B32">
         <v>50</v>
@@ -9553,7 +11518,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>842</v>
+        <v>906</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -9561,7 +11526,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="B34">
         <v>50</v>
@@ -9569,7 +11534,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="B35">
         <v>50</v>
@@ -9577,7 +11542,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>845</v>
+        <v>909</v>
       </c>
       <c r="B36">
         <v>50</v>
@@ -9585,7 +11550,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>846</v>
+        <v>910</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -9593,7 +11558,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>847</v>
+        <v>911</v>
       </c>
       <c r="B38">
         <v>50</v>
@@ -9601,7 +11566,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>849</v>
+        <v>912</v>
       </c>
       <c r="B39">
         <v>50</v>
@@ -9609,7 +11574,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>850</v>
+        <v>913</v>
       </c>
       <c r="B40">
         <v>50</v>
@@ -9617,7 +11582,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>851</v>
+        <v>914</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -9625,7 +11590,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>852</v>
+        <v>915</v>
       </c>
       <c r="B42">
         <v>50</v>
@@ -9633,7 +11598,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>853</v>
+        <v>916</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -9641,7 +11606,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>854</v>
+        <v>917</v>
       </c>
       <c r="B44">
         <v>50</v>
@@ -9649,7 +11614,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>855</v>
+        <v>918</v>
       </c>
       <c r="B45">
         <v>50</v>
@@ -9657,7 +11622,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>856</v>
+        <v>920</v>
       </c>
       <c r="B46">
         <v>50</v>
@@ -9665,7 +11630,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>857</v>
+        <v>921</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -9673,7 +11638,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>868</v>
+        <v>924</v>
       </c>
       <c r="B48">
         <v>50</v>
@@ -9681,7 +11646,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>870</v>
+        <v>925</v>
       </c>
       <c r="B49">
         <v>50</v>
@@ -9689,7 +11654,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>873</v>
+        <v>926</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -9697,7 +11662,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>874</v>
+        <v>927</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -9705,7 +11670,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>875</v>
+        <v>928</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -9713,7 +11678,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>876</v>
+        <v>929</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -9721,7 +11686,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>877</v>
+        <v>930</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -9729,7 +11694,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>878</v>
+        <v>931</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -9737,7 +11702,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>879</v>
+        <v>932</v>
       </c>
       <c r="B56">
         <v>50</v>
@@ -9745,7 +11710,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>880</v>
+        <v>933</v>
       </c>
       <c r="B57">
         <v>50</v>
@@ -9753,19 +11718,1732 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>881</v>
+        <v>934</v>
       </c>
       <c r="B58">
         <v>50</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>935</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>936</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>937</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>938</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>939</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>940</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>941</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>942</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>943</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>944</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>945</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>946</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>947</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>948</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>949</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>950</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>951</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>952</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>953</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>954</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>955</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>956</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>957</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>958</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>959</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>960</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>961</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>962</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>963</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>964</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>965</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>966</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>967</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>968</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>969</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>970</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>972</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>973</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>974</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>975</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>976</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>978</v>
+      </c>
+      <c r="B102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>979</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>980</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>981</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>982</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>983</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>984</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>985</v>
+      </c>
+      <c r="B109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>986</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>988</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>989</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>990</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>991</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>992</v>
+      </c>
+      <c r="B116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>993</v>
+      </c>
+      <c r="B117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>994</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>995</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>997</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>998</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>999</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B157">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B167">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B168">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B169">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B178">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B180">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B181">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B183">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B185">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B186">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B187">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B189">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B190">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B191">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B192">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B193">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B194">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B195">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B196">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B197">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B199">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B200">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B201">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B203">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B205">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B206">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B207">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B208">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B209">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B212">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B213">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B214">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B215">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B216">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B217">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B218">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B219">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B220">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B222">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B224">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B225">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B226">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B227">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B228">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B229">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B230">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B231">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B232">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B233">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B235">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B237">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B238">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B241">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B242">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B244">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B245">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B246">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B247">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B248">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B249">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B251">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B252">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B253">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B254">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B255">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B256">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B257">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B261">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B262">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B263">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B266">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B268">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B269">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B270">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B272">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B273">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B275">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B277">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B278">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B279">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B280">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B281">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B282">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B283">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B284">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B285">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B286">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B287">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B289">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B290">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B291">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A4:B79">
-    <sortCondition descending="1" ref="B4:B79"/>
+  <sortState ref="A4:B316">
+    <sortCondition descending="1" ref="B4:B316"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -16978,7 +16978,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="2376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="2415">
   <si>
     <t>веник сорго</t>
   </si>
@@ -7168,6 +7168,123 @@
   </si>
   <si>
     <t>трикотажная вафля купить</t>
+  </si>
+  <si>
+    <t>ткань вафельная,</t>
+  </si>
+  <si>
+    <t>вафельная ткань,</t>
+  </si>
+  <si>
+    <t>вафельная ткань в рулонах,</t>
+  </si>
+  <si>
+    <t>вафельная ткань для покрывала,</t>
+  </si>
+  <si>
+    <t>вафельная ткань для полотенец,</t>
+  </si>
+  <si>
+    <t>вафельная тряпка рулон,</t>
+  </si>
+  <si>
+    <t>вафельное полотно,</t>
+  </si>
+  <si>
+    <t>вафельное полотно в рулонах,</t>
+  </si>
+  <si>
+    <t>вафельное полотно для полотенец,</t>
+  </si>
+  <si>
+    <t>вафельное полотно рулон,</t>
+  </si>
+  <si>
+    <t>вафля ткань,</t>
+  </si>
+  <si>
+    <t>ветошь вафельное полотно,</t>
+  </si>
+  <si>
+    <t>полотенечное вафельное полотно,</t>
+  </si>
+  <si>
+    <t>полотно вафельное,</t>
+  </si>
+  <si>
+    <t>полотно вафельное в рулонах,</t>
+  </si>
+  <si>
+    <t>полотно вафельное рулон,</t>
+  </si>
+  <si>
+    <t>полотно для полотенец,</t>
+  </si>
+  <si>
+    <t>ткань вафельная для полотенец,</t>
+  </si>
+  <si>
+    <t>ткань вафельная полотенечная,</t>
+  </si>
+  <si>
+    <t>ткань вафельное полотно,</t>
+  </si>
+  <si>
+    <t>ткань вафля,</t>
+  </si>
+  <si>
+    <t>ткань для вафельных полотенец,</t>
+  </si>
+  <si>
+    <t>ткань для полотенец вафельная,</t>
+  </si>
+  <si>
+    <t>ткань полотенечная вафельная,</t>
+  </si>
+  <si>
+    <t>тканина вафельна,</t>
+  </si>
+  <si>
+    <t>вафельная ткан,</t>
+  </si>
+  <si>
+    <t>вафельную ткань на метраж,</t>
+  </si>
+  <si>
+    <t>вафельную ткань,</t>
+  </si>
+  <si>
+    <t>Полотно вафельное 120,</t>
+  </si>
+  <si>
+    <t>вафельное полотно для пошива полотенец,</t>
+  </si>
+  <si>
+    <t>полотно вафельное гр,</t>
+  </si>
+  <si>
+    <t>полотенечную ткань,</t>
+  </si>
+  <si>
+    <t>вафельную ткань для полотенец,</t>
+  </si>
+  <si>
+    <t>ткань вафельная comfort 120 г/м2,</t>
+  </si>
+  <si>
+    <t>вафельное полотно в рулоне,</t>
+  </si>
+  <si>
+    <t>вафельное полотно отбеленное,</t>
+  </si>
+  <si>
+    <t>полотно вафельное отбеленное,</t>
+  </si>
+  <si>
+    <t>ткань вафельная белая,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ткань вафельная для полотенец в рулонах </t>
   </si>
 </sst>
 </file>
@@ -16978,13 +17095,14 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16995,8 +17113,11 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>2414</v>
+      </c>
       <c r="G1" s="2"/>
+      <c r="I1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -17033,6 +17154,9 @@
       <c r="E4">
         <v>500</v>
       </c>
+      <c r="I4" t="s">
+        <v>2376</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -17041,6 +17165,9 @@
       <c r="E5">
         <v>500</v>
       </c>
+      <c r="I5" t="s">
+        <v>2377</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -17049,6 +17176,9 @@
       <c r="E6">
         <v>50</v>
       </c>
+      <c r="I6" t="s">
+        <v>2378</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -17063,6 +17193,9 @@
       <c r="E7">
         <v>50</v>
       </c>
+      <c r="I7" t="s">
+        <v>2379</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -17071,6 +17204,9 @@
       <c r="E8">
         <v>50</v>
       </c>
+      <c r="I8" t="s">
+        <v>2380</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -17079,6 +17215,9 @@
       <c r="E9">
         <v>50</v>
       </c>
+      <c r="I9" t="s">
+        <v>2381</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -17093,6 +17232,9 @@
       <c r="E10">
         <v>50</v>
       </c>
+      <c r="I10" t="s">
+        <v>2382</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -17107,6 +17249,9 @@
       <c r="E11">
         <v>50</v>
       </c>
+      <c r="I11" t="s">
+        <v>2383</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -17121,6 +17266,9 @@
       <c r="E12">
         <v>50</v>
       </c>
+      <c r="I12" t="s">
+        <v>2384</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -17135,6 +17283,9 @@
       <c r="E13">
         <v>50</v>
       </c>
+      <c r="I13" t="s">
+        <v>2385</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -17143,6 +17294,9 @@
       <c r="E14">
         <v>50</v>
       </c>
+      <c r="I14" t="s">
+        <v>2386</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -17151,6 +17305,9 @@
       <c r="E15">
         <v>50</v>
       </c>
+      <c r="I15" t="s">
+        <v>2387</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -17165,16 +17322,22 @@
       <c r="E16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>2354</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2325</v>
       </c>
@@ -17187,16 +17350,22 @@
       <c r="E18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>2357</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2327</v>
       </c>
@@ -17209,8 +17378,11 @@
       <c r="E20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2328</v>
       </c>
@@ -17223,8 +17395,11 @@
       <c r="E21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2329</v>
       </c>
@@ -17237,16 +17412,22 @@
       <c r="E22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>2367</v>
       </c>
       <c r="E23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2331</v>
       </c>
@@ -17259,8 +17440,11 @@
       <c r="E24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2332</v>
       </c>
@@ -17273,8 +17457,11 @@
       <c r="E25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2333</v>
       </c>
@@ -17287,8 +17474,11 @@
       <c r="E26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2334</v>
       </c>
@@ -17301,104 +17491,153 @@
       <c r="E27">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2337</v>
       </c>
       <c r="B30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2338</v>
       </c>
       <c r="B31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2339</v>
       </c>
       <c r="B32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2340</v>
       </c>
       <c r="B33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2341</v>
       </c>
       <c r="B34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2342</v>
       </c>
       <c r="B35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2343</v>
       </c>
       <c r="B36">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2344</v>
       </c>
       <c r="B37">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2345</v>
       </c>
       <c r="B38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2346</v>
       </c>
       <c r="B39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2347</v>
       </c>
       <c r="B40">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2348</v>
       </c>
       <c r="B41">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2349</v>
       </c>
@@ -17406,7 +17645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2350</v>
       </c>
@@ -17414,7 +17653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2351</v>
       </c>
@@ -17422,7 +17661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2352</v>
       </c>
@@ -17526,6 +17765,7 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="веники" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="валик малярный" sheetId="15" r:id="rId15"/>
     <sheet name="ветошь" sheetId="16" r:id="rId16"/>
     <sheet name="ткань вафельная" sheetId="17" r:id="rId17"/>
+    <sheet name="мешковина джутовая" sheetId="18" r:id="rId18"/>
+    <sheet name="рабочие перчатки" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="2704">
   <si>
     <t>веник сорго</t>
   </si>
@@ -7285,13 +7287,880 @@
   </si>
   <si>
     <t xml:space="preserve">Ткань вафельная для полотенец в рулонах </t>
+  </si>
+  <si>
+    <t>мешковина джутовая</t>
+  </si>
+  <si>
+    <t>джут мешковина</t>
+  </si>
+  <si>
+    <t>джутовая мешковина</t>
+  </si>
+  <si>
+    <t>джутовая мешковина купить</t>
+  </si>
+  <si>
+    <t>купить мешковину джутовую</t>
+  </si>
+  <si>
+    <t>купить мешковину джутовую недорого</t>
+  </si>
+  <si>
+    <t>мешковина джут</t>
+  </si>
+  <si>
+    <t>мешковина джутовая купить</t>
+  </si>
+  <si>
+    <t>мешковина джутовая цена</t>
+  </si>
+  <si>
+    <t>ткань мешковина джут</t>
+  </si>
+  <si>
+    <t>мешковина джутовая,</t>
+  </si>
+  <si>
+    <t>джут мешковина,</t>
+  </si>
+  <si>
+    <t>джутовая мешковина,</t>
+  </si>
+  <si>
+    <t>мешковина джут,</t>
+  </si>
+  <si>
+    <t>ткань мешковина джут,</t>
+  </si>
+  <si>
+    <t>мешковина киев,</t>
+  </si>
+  <si>
+    <t>мешковина,</t>
+  </si>
+  <si>
+    <t>упаковочная ткань,</t>
+  </si>
+  <si>
+    <t>упаковочный материал для подарков,</t>
+  </si>
+  <si>
+    <t>упаковочный материал,</t>
+  </si>
+  <si>
+    <t>холст,</t>
+  </si>
+  <si>
+    <t>мешковина джутовая плотностью 200 250 270 400 г м,</t>
+  </si>
+  <si>
+    <t>Декоративная мешковина,</t>
+  </si>
+  <si>
+    <t>декор,</t>
+  </si>
+  <si>
+    <t>декоративные материалы,</t>
+  </si>
+  <si>
+    <t>Материалы для декора стен,</t>
+  </si>
+  <si>
+    <t>материалы для потолка,</t>
+  </si>
+  <si>
+    <t>материалы для строительства,</t>
+  </si>
+  <si>
+    <t>шторы,</t>
+  </si>
+  <si>
+    <t>джутовое полотно,</t>
+  </si>
+  <si>
+    <t>полотно джутовое,</t>
+  </si>
+  <si>
+    <t>джутовая ткань,</t>
+  </si>
+  <si>
+    <t>ткань джутовая,</t>
+  </si>
+  <si>
+    <t>Джутовый материал</t>
+  </si>
+  <si>
+    <t>материал джутовый,</t>
+  </si>
+  <si>
+    <t>материя джутовая,</t>
+  </si>
+  <si>
+    <t>джутовый материал,</t>
+  </si>
+  <si>
+    <t>мешковина декоративная ткань,</t>
+  </si>
+  <si>
+    <t>мешковина рулонами,</t>
+  </si>
+  <si>
+    <t>мешковину,</t>
+  </si>
+  <si>
+    <t>мешковина ткань,</t>
+  </si>
+  <si>
+    <t>ткань мешковина,</t>
+  </si>
+  <si>
+    <t>мешковину для декора,</t>
+  </si>
+  <si>
+    <t>мешковина для декора,</t>
+  </si>
+  <si>
+    <t>мешковина декоративная,</t>
+  </si>
+  <si>
+    <t>мешковину ткань,</t>
+  </si>
+  <si>
+    <t>мешковину в рулоне,</t>
+  </si>
+  <si>
+    <t>материал мешковина,</t>
+  </si>
+  <si>
+    <t>мешковину для рукоделия,</t>
+  </si>
+  <si>
+    <t>ткань мешковину для декора,</t>
+  </si>
+  <si>
+    <t>мешковина для штор,</t>
+  </si>
+  <si>
+    <t>мешковина в рулоне,</t>
+  </si>
+  <si>
+    <t>мешковина в рулонах,</t>
+  </si>
+  <si>
+    <t>ткань упаковочная мешковина,</t>
+  </si>
+  <si>
+    <t>мешковина для мебели,</t>
+  </si>
+  <si>
+    <t>плотная мешковина,</t>
+  </si>
+  <si>
+    <t>мешковина декор,</t>
+  </si>
+  <si>
+    <t>мебельная ткань мешковина,</t>
+  </si>
+  <si>
+    <t>декоративную мешковину,</t>
+  </si>
+  <si>
+    <t>мешковина упаковочная,</t>
+  </si>
+  <si>
+    <t>мешковина для цветов,</t>
+  </si>
+  <si>
+    <t>мешковину джутовую,</t>
+  </si>
+  <si>
+    <t>упаковочная мешковина,</t>
+  </si>
+  <si>
+    <t>мешковину в,</t>
+  </si>
+  <si>
+    <t>сеть мешковина,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки</t>
+  </si>
+  <si>
+    <t>перчатки рабочие</t>
+  </si>
+  <si>
+    <t>купить перчатки рабочие</t>
+  </si>
+  <si>
+    <t>перчатки строительные</t>
+  </si>
+  <si>
+    <t>купить рабочие перчатки</t>
+  </si>
+  <si>
+    <t>перчатки хб</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие</t>
+  </si>
+  <si>
+    <t>строительные перчатки</t>
+  </si>
+  <si>
+    <t>перчатки рабочие кожаные</t>
+  </si>
+  <si>
+    <t>рабочие перчатки купить</t>
+  </si>
+  <si>
+    <t>перчатки рабочие купить</t>
+  </si>
+  <si>
+    <t>перчатки рабочие цена</t>
+  </si>
+  <si>
+    <t>перчатки кожаные рабочие</t>
+  </si>
+  <si>
+    <t>gthxfnrb hf jxbt</t>
+  </si>
+  <si>
+    <t>американские рабочие перчатки</t>
+  </si>
+  <si>
+    <t>белые рабочие перчатки</t>
+  </si>
+  <si>
+    <t>белые строительные перчатки</t>
+  </si>
+  <si>
+    <t>брезентовые рукавицы</t>
+  </si>
+  <si>
+    <t>брезентовые рукавицы цена</t>
+  </si>
+  <si>
+    <t>детские рабочие перчатки</t>
+  </si>
+  <si>
+    <t>желтые рабочие перчатки</t>
+  </si>
+  <si>
+    <t>зимние перчатки рабочие</t>
+  </si>
+  <si>
+    <t>зимние рабочие перчатки</t>
+  </si>
+  <si>
+    <t>зимние рабочие перчатки купить</t>
+  </si>
+  <si>
+    <t>зимние рабочие рукавицы</t>
+  </si>
+  <si>
+    <t>зимние строительные перчатки</t>
+  </si>
+  <si>
+    <t>изготовление рабочих перчаток</t>
+  </si>
+  <si>
+    <t>кожаные перчатки рабочие</t>
+  </si>
+  <si>
+    <t>кожаные рабочие перчатки</t>
+  </si>
+  <si>
+    <t>кожаные рабочие перчатки купить</t>
+  </si>
+  <si>
+    <t>кожаные строительные перчатки</t>
+  </si>
+  <si>
+    <t>краги рабочие</t>
+  </si>
+  <si>
+    <t>непромокаемые рабочие перчатки</t>
+  </si>
+  <si>
+    <t>перчатка пвх</t>
+  </si>
+  <si>
+    <t>перчатка строительная</t>
+  </si>
+  <si>
+    <t>перчатка хб</t>
+  </si>
+  <si>
+    <t>перчатки без пальцев рабочие</t>
+  </si>
+  <si>
+    <t>перчатки для рабочих</t>
+  </si>
+  <si>
+    <t>перчатки для стройки</t>
+  </si>
+  <si>
+    <t>перчатки замшевые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки защитные от кислот и щелочей</t>
+  </si>
+  <si>
+    <t>перчатки защитные рабочие</t>
+  </si>
+  <si>
+    <t>перчатки защитные трикотажные</t>
+  </si>
+  <si>
+    <t>перчатки зимние мужские рабочие</t>
+  </si>
+  <si>
+    <t>перчатки зимние рабочие</t>
+  </si>
+  <si>
+    <t>перчатки зимние рабочие купить</t>
+  </si>
+  <si>
+    <t>перчатки зимние рабочие цена</t>
+  </si>
+  <si>
+    <t>перчатки зимние строительные</t>
+  </si>
+  <si>
+    <t>перчатки из пвх</t>
+  </si>
+  <si>
+    <t>перчатки кожаные рабочие купить</t>
+  </si>
+  <si>
+    <t>перчатки кожаные строительные</t>
+  </si>
+  <si>
+    <t>перчатки монтажные</t>
+  </si>
+  <si>
+    <t>перчатки монтажные зимние</t>
+  </si>
+  <si>
+    <t>перчатки монтажные спилковые</t>
+  </si>
+  <si>
+    <t>перчатки нитриловые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки одноразовые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки оранжевые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки от порезов купить</t>
+  </si>
+  <si>
+    <t>перчатки пвх купить</t>
+  </si>
+  <si>
+    <t>перчатки пвх цена</t>
+  </si>
+  <si>
+    <t>перчатки пвх черные</t>
+  </si>
+  <si>
+    <t>перчатки прорезиненные рабочие</t>
+  </si>
+  <si>
+    <t>перчатки прорезиненные рабочие цена</t>
+  </si>
+  <si>
+    <t>перчатки рабочие алиэкспресс</t>
+  </si>
+  <si>
+    <t>перчатки рабочие без пальцев</t>
+  </si>
+  <si>
+    <t>перчатки рабочие белые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие детские</t>
+  </si>
+  <si>
+    <t>перчатки рабочие женские</t>
+  </si>
+  <si>
+    <t>перчатки рабочие замшевые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие защитные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие зима</t>
+  </si>
+  <si>
+    <t>перчатки рабочие зимние</t>
+  </si>
+  <si>
+    <t>перчатки рабочие зимние купить</t>
+  </si>
+  <si>
+    <t>перчатки рабочие зимние цена</t>
+  </si>
+  <si>
+    <t>перчатки рабочие кожаные комбинированные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие кожаные купить</t>
+  </si>
+  <si>
+    <t>перчатки рабочие комбинированные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие латексные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие нейлоновые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие непромокаемые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие нитриловые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие обливные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие оранжевые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие от производителя</t>
+  </si>
+  <si>
+    <t>перчатки рабочие пвх</t>
+  </si>
+  <si>
+    <t>перчатки рабочие плотные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие прорезиненные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие прорезиненные 300 с пвх покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие профессиональные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие резиновые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с латексным покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с логотипом</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с нитриловым покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с пвх</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с пвх покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с резиновым покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие спилковые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие теплые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие тонкие</t>
+  </si>
+  <si>
+    <t>перчатки рабочие трикотажные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие трикотажные нейлоновые с полиуретановым покрытием</t>
+  </si>
+  <si>
+    <t>перчатки рабочие трикотажные с пвх</t>
+  </si>
+  <si>
+    <t>перчатки рабочие усиленные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб купить</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб с пвх</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб цена</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хлопчатобумажные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие черные</t>
+  </si>
+  <si>
+    <t>перчатки резиновые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки резиновые рабочие цена</t>
+  </si>
+  <si>
+    <t>перчатки резиновые строительные</t>
+  </si>
+  <si>
+    <t>перчатки с нитриловым обливом</t>
+  </si>
+  <si>
+    <t>перчатки с пвх</t>
+  </si>
+  <si>
+    <t>перчатки с пвх напылением</t>
+  </si>
+  <si>
+    <t>перчатки с пвх покрытием</t>
+  </si>
+  <si>
+    <t>перчатки с пвх точкой</t>
+  </si>
+  <si>
+    <t>перчатки с прорезиненной ладонью</t>
+  </si>
+  <si>
+    <t>перчатки с точечным покрытием</t>
+  </si>
+  <si>
+    <t>перчатки с точечным покрытием цена</t>
+  </si>
+  <si>
+    <t>перчатки спилковые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки строительные зимние</t>
+  </si>
+  <si>
+    <t>перчатки строительные кожаные</t>
+  </si>
+  <si>
+    <t>перчатки строительные купить</t>
+  </si>
+  <si>
+    <t>перчатки строительные прорезиненные</t>
+  </si>
+  <si>
+    <t>перчатки строительные профессиональные</t>
+  </si>
+  <si>
+    <t>перчатки строительные резиновые</t>
+  </si>
+  <si>
+    <t>перчатки строительные тонкие</t>
+  </si>
+  <si>
+    <t>перчатки строительные цена</t>
+  </si>
+  <si>
+    <t>перчатки теплые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки тканевые прорезиненные</t>
+  </si>
+  <si>
+    <t>перчатки тканевые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки трикотажные рабочие</t>
+  </si>
+  <si>
+    <t>перчатки флисовые рабочие</t>
+  </si>
+  <si>
+    <t>перчатки хб зимние</t>
+  </si>
+  <si>
+    <t>перчатки хб купить</t>
+  </si>
+  <si>
+    <t>перчатки хб латексные</t>
+  </si>
+  <si>
+    <t>перчатки хб обливные</t>
+  </si>
+  <si>
+    <t>перчатки хб от производителя</t>
+  </si>
+  <si>
+    <t>перчатки хб пвх</t>
+  </si>
+  <si>
+    <t>перчатки хб плотные</t>
+  </si>
+  <si>
+    <t>перчатки хб прорезиненные</t>
+  </si>
+  <si>
+    <t>перчатки хб рабочие</t>
+  </si>
+  <si>
+    <t>перчатки хб с латексным покрытием</t>
+  </si>
+  <si>
+    <t>перчатки хб с нитриловым покрытием</t>
+  </si>
+  <si>
+    <t>перчатки хб с пвх</t>
+  </si>
+  <si>
+    <t>перчатки хб с пвх купить</t>
+  </si>
+  <si>
+    <t>перчатки хб с пвх от производителя</t>
+  </si>
+  <si>
+    <t>перчатки хб с пвх покрытием</t>
+  </si>
+  <si>
+    <t>перчатки хб с пвх цена</t>
+  </si>
+  <si>
+    <t>перчатки хб с покрытием</t>
+  </si>
+  <si>
+    <t>перчатки хб строительные</t>
+  </si>
+  <si>
+    <t>перчатки хб тонкие</t>
+  </si>
+  <si>
+    <t>перчатки хб цена</t>
+  </si>
+  <si>
+    <t>перчатки хозяйственные хб</t>
+  </si>
+  <si>
+    <t>перчатки цена рабочие</t>
+  </si>
+  <si>
+    <t>перчатки черные рабочие</t>
+  </si>
+  <si>
+    <t>перчатки черные хб</t>
+  </si>
+  <si>
+    <t>перчатки шерстяные рабочие</t>
+  </si>
+  <si>
+    <t>профессиональные рабочие перчатки</t>
+  </si>
+  <si>
+    <t>профессиональные строительные перчатки</t>
+  </si>
+  <si>
+    <t>рабочие защитные перчатки</t>
+  </si>
+  <si>
+    <t>рабочие зимние перчатки</t>
+  </si>
+  <si>
+    <t>рабочие кожаные перчатки</t>
+  </si>
+  <si>
+    <t>рабочие перчатки без пальцев</t>
+  </si>
+  <si>
+    <t>рабочие перчатки зимние</t>
+  </si>
+  <si>
+    <t>рабочие перчатки из кожи</t>
+  </si>
+  <si>
+    <t>рабочие перчатки из козьей кожи</t>
+  </si>
+  <si>
+    <t>рабочие перчатки кожаные</t>
+  </si>
+  <si>
+    <t>рабочие перчатки от производителя</t>
+  </si>
+  <si>
+    <t>рабочие перчатки прорезиненные</t>
+  </si>
+  <si>
+    <t>рабочие перчатки с логотипом</t>
+  </si>
+  <si>
+    <t>рабочие перчатки хб</t>
+  </si>
+  <si>
+    <t>рабочие перчатки цена</t>
+  </si>
+  <si>
+    <t>рабочие резиновые перчатки</t>
+  </si>
+  <si>
+    <t>рабочие рукавицы</t>
+  </si>
+  <si>
+    <t>рабочие рукавицы купить</t>
+  </si>
+  <si>
+    <t>рабочие рукавицы цена</t>
+  </si>
+  <si>
+    <t>рабочии перчатки</t>
+  </si>
+  <si>
+    <t>рабочий перчатки</t>
+  </si>
+  <si>
+    <t>резиновые перчатки рабочие</t>
+  </si>
+  <si>
+    <t>резиновые рабочие перчатки</t>
+  </si>
+  <si>
+    <t>рукавицы брезентовые со спилковым наладонником</t>
+  </si>
+  <si>
+    <t>рукавицы зимние рабочие</t>
+  </si>
+  <si>
+    <t>рукавицы кожаные рабочие</t>
+  </si>
+  <si>
+    <t>рукавицы пвх</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие брезентовые</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие зимние</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие кожаные</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие хб</t>
+  </si>
+  <si>
+    <t>рукавицы строительные</t>
+  </si>
+  <si>
+    <t>рукавицы строительные купить</t>
+  </si>
+  <si>
+    <t>рукавицы теплые рабочие</t>
+  </si>
+  <si>
+    <t>рукавицы хб с пвх</t>
+  </si>
+  <si>
+    <t>спецовки перчатки</t>
+  </si>
+  <si>
+    <t>спецодежда перчатки</t>
+  </si>
+  <si>
+    <t>спецодежда перчатки зимние</t>
+  </si>
+  <si>
+    <t>строительная перчатка</t>
+  </si>
+  <si>
+    <t>строительные кожаные перчатки</t>
+  </si>
+  <si>
+    <t>строительные перчатки купить</t>
+  </si>
+  <si>
+    <t>строительные перчатки цена</t>
+  </si>
+  <si>
+    <t>строительные рукавицы</t>
+  </si>
+  <si>
+    <t>теплые рабочие перчатки</t>
+  </si>
+  <si>
+    <t>теплые строительные перчатки</t>
+  </si>
+  <si>
+    <t>термо перчатки рабочие</t>
+  </si>
+  <si>
+    <t>тонкие рабочие перчатки</t>
+  </si>
+  <si>
+    <t>тонкие строительные перчатки</t>
+  </si>
+  <si>
+    <t>тёплые рабочие перчатки</t>
+  </si>
+  <si>
+    <t>хб перчатки с пвх</t>
+  </si>
+  <si>
+    <t>хбшные перчатки</t>
+  </si>
+  <si>
+    <t>хорошие рабочие перчатки</t>
+  </si>
+  <si>
+    <t>цена рабочих перчаток</t>
+  </si>
+  <si>
+    <t>черные рабочие перчатки</t>
+  </si>
+  <si>
+    <t>черные строительные перчатки</t>
+  </si>
+  <si>
+    <t>Перчатки защитные рабочие  профессиональные строительные</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие из пвх черные с точкой</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие защитные трикотажные</t>
+  </si>
+  <si>
+    <t>Перчатки теплые  рабочие зимние строительные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перчатки хб плотные рабочие строительные </t>
+  </si>
+  <si>
+    <t>Перчатки нитриловые рабочие</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие строительные резиновые</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие латексные</t>
+  </si>
+  <si>
+    <t>перчатки рабочие брезентовые</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7324,6 +8193,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7345,7 +8244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7361,6 +8260,20 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17094,8 +18007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17760,6 +18673,2086 @@
   </sheetData>
   <sortState ref="A4:B74">
     <sortCondition descending="1" ref="B4:B74"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="4"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>2426</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="Q3" s="4"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B13">
+    <sortCondition descending="1" ref="B4:B13"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="6"/>
+    <col min="22" max="22" width="42.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="6"/>
+    <col min="25" max="25" width="32.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="6"/>
+    <col min="28" max="28" width="51" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="T1" s="9"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="9" t="s">
+        <v>2701</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="9" t="s">
+        <v>2702</v>
+      </c>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+    </row>
+    <row r="2" spans="1:53" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+    </row>
+    <row r="3" spans="1:53" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B4" s="8">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2528</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2485</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2522</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2578</v>
+      </c>
+      <c r="Q4">
+        <v>50</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>2534</v>
+      </c>
+      <c r="T4" s="6">
+        <v>50</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>2569</v>
+      </c>
+      <c r="W4" s="6">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>2557</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="AC4">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AF4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B5" s="8">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2515</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2501</v>
+      </c>
+      <c r="Q5">
+        <v>50</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="T5" s="6">
+        <v>50</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>2592</v>
+      </c>
+      <c r="W5" s="6">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>2570</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>2663</v>
+      </c>
+      <c r="AC5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B6" s="8">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2540</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2584</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2581</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>2572</v>
+      </c>
+      <c r="T6" s="6">
+        <v>50</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>2576</v>
+      </c>
+      <c r="W6" s="6">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>2617</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>2667</v>
+      </c>
+      <c r="AC6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B7" s="8">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2582</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2504</v>
+      </c>
+      <c r="Q7">
+        <v>50</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>2593</v>
+      </c>
+      <c r="T7" s="6">
+        <v>50</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>2590</v>
+      </c>
+      <c r="W7" s="6">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B8" s="8">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2613</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2505</v>
+      </c>
+      <c r="Q8">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="T8">
+        <v>50</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>2651</v>
+      </c>
+      <c r="W8" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2594</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2622</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="Q9">
+        <v>50</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="W9" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2524</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>2607</v>
+      </c>
+      <c r="W10" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2596</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2527</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>2655</v>
+      </c>
+      <c r="W11" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2597</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2632</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2532</v>
+      </c>
+      <c r="Q12">
+        <v>50</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>2661</v>
+      </c>
+      <c r="W12" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B13" s="8">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2633</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2550</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="W13" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B14" s="8">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2551</v>
+      </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2520</v>
+      </c>
+      <c r="W14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B15" s="8">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Q15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B16" s="8">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2653</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2643</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2629</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2620</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2664</v>
+      </c>
+      <c r="Q17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2559</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2689</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2668</v>
+      </c>
+      <c r="Q18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B19" s="8">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2561</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2690</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B20" s="8">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2674</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2683</v>
+      </c>
+      <c r="Q20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B21" s="8">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2684</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B22" s="8">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B23" s="8">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B24" s="8">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B25" s="8">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B26" s="8">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B28" s="8">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B29" s="8">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B30" s="8">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B31" s="8">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B32" s="8">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B33" s="8">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B34" s="8">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B35" s="8">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B36" s="8">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B37" s="8">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B38" s="8">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B39" s="8">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B40" s="8">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B41" s="8">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B43" s="8">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B44" s="8">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B47" s="8">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B49" s="8">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B50" s="8">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B51" s="8">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B52" s="8">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B55" s="8">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B56" s="8">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B57" s="8">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B58" s="8">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B59" s="8">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B60" s="8">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B62" s="8">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B63" s="8">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B64" s="8">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B65" s="8">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B66" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B67" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B68" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B69" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B70" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B72" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B73" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B75" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B76" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B77" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B78" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B79" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B80" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B81" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B82" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B83" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B84" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B85" s="8">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B257">
+    <sortCondition descending="1" ref="B4:B257"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B3"/>

--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -19082,8 +19082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20051,6 +20051,12 @@
       <c r="E22">
         <v>50</v>
       </c>
+      <c r="P22" t="s">
+        <v>2646</v>
+      </c>
+      <c r="Q22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -20065,6 +20071,12 @@
       <c r="E23">
         <v>50</v>
       </c>
+      <c r="P23" s="6" t="s">
+        <v>2615</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -20394,7 +20406,7 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="E49">
         <v>50</v>
@@ -20408,7 +20420,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -20422,7 +20434,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>2649</v>
+        <v>2660</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -20436,7 +20448,7 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>2660</v>
+        <v>2665</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -20444,7 +20456,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>2665</v>
+        <v>2671</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -20452,7 +20464,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="E54">
         <v>50</v>
@@ -20466,7 +20478,7 @@
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="E55">
         <v>50</v>
@@ -20480,7 +20492,7 @@
         <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -20494,7 +20506,7 @@
         <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="E57">
         <v>50</v>
@@ -20508,21 +20520,15 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="E58">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B59" s="8">
-        <v>50</v>
-      </c>
       <c r="D59" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="E59">
         <v>50</v>
@@ -20536,7 +20542,7 @@
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="E60">
         <v>50</v>
@@ -20544,7 +20550,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="E61">
         <v>50</v>
@@ -20558,7 +20564,7 @@
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="E62">
         <v>50</v>
@@ -20572,7 +20578,7 @@
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="E63">
         <v>50</v>
@@ -20586,27 +20592,21 @@
         <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="E64">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>2630</v>
       </c>
       <c r="B65" s="8">
         <v>50</v>
       </c>
-      <c r="D65" t="s">
-        <v>2694</v>
-      </c>
-      <c r="E65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>2634</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>2636</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>2639</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>2648</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>2650</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>2652</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>2654</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>2656</v>
       </c>
@@ -20670,7 +20670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>2657</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>2658</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>2669</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>2670</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>2672</v>
       </c>

--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="2704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="2760">
   <si>
     <t>веник сорго</t>
   </si>
@@ -8132,9 +8132,6 @@
     <t>Перчатки защитные рабочие  профессиональные строительные</t>
   </si>
   <si>
-    <t>Перчатки рабочие из пвх черные с точкой</t>
-  </si>
-  <si>
     <t>Перчатки рабочие защитные трикотажные</t>
   </si>
   <si>
@@ -8154,6 +8151,177 @@
   </si>
   <si>
     <t>перчатки рабочие брезентовые</t>
+  </si>
+  <si>
+    <t>перчатки рабочие,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>перчатки строительные,</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие,</t>
+  </si>
+  <si>
+    <t>строительные перчатки,</t>
+  </si>
+  <si>
+    <t>американские рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>белые рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>белые строительные перчатки,</t>
+  </si>
+  <si>
+    <t>желтые рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>непромокаемые рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>перчатка строительная,</t>
+  </si>
+  <si>
+    <t>перчатки без пальцев рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки для рабочих,</t>
+  </si>
+  <si>
+    <t>перчатки для стройки,</t>
+  </si>
+  <si>
+    <t>перчатки защитные рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки монтажные,</t>
+  </si>
+  <si>
+    <t>перчатки одноразовые рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки оранжевые рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки прорезиненные рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие белые,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие защитные,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие оранжевые,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие плотные,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие прорезиненные,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие профессиональные,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с покрытием,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие тонкие,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие усиленные,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие черные,</t>
+  </si>
+  <si>
+    <t>перчатки с прорезиненной ладонью,</t>
+  </si>
+  <si>
+    <t>перчатки с точечным покрытием,</t>
+  </si>
+  <si>
+    <t>рабочие рукавицы,</t>
+  </si>
+  <si>
+    <t>Хб рукавицы рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб,</t>
+  </si>
+  <si>
+    <t>перчатки хб рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки тканевые рабочие,</t>
+  </si>
+  <si>
+    <t>рукавицы строительные,</t>
+  </si>
+  <si>
+    <t>строительные рукавицы,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб с пвх,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки хб,</t>
+  </si>
+  <si>
+    <t>строительный перчатки,</t>
+  </si>
+  <si>
+    <t>рабочии перчатки,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с пвх точкой,</t>
+  </si>
+  <si>
+    <t>тонкие рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>черные строительные перчатки,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие с пвх,</t>
+  </si>
+  <si>
+    <t>перчатки черные рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки хб строительные,</t>
+  </si>
+  <si>
+    <t>хорошие рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>перчатки строительные тонкие,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки хб с пвх,</t>
+  </si>
+  <si>
+    <t>перчатки хб,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие пвх,</t>
+  </si>
+  <si>
+    <t>тонкие строительные перчатки,</t>
+  </si>
+  <si>
+    <t>перчатка рабочий,</t>
+  </si>
+  <si>
+    <t>Рабочие строительные перчатки</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие трикотажные черные с пвх  точкой</t>
   </si>
 </sst>
 </file>
@@ -8224,12 +8392,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8244,7 +8418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8274,6 +8448,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19080,10 +19257,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA85"/>
+  <dimension ref="A1:AX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19091,21 +19268,21 @@
     <col min="1" max="1" width="42.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="8"/>
     <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.5703125" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="19" max="19" width="42.28515625" style="6" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="6"/>
-    <col min="22" max="22" width="42.28515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="32.28515625" style="6" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="6"/>
-    <col min="25" max="25" width="32.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="6"/>
-    <col min="28" max="28" width="51" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -19113,20 +19290,20 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>2695</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2696</v>
+      <c r="G1" s="12" t="s">
+        <v>2759</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2699</v>
+      <c r="J1" s="12" t="s">
+        <v>2698</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
@@ -19136,13 +19313,11 @@
         <v>2697</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2698</v>
-      </c>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="9" t="s">
+        <v>2699</v>
+      </c>
+      <c r="Q1" s="9"/>
       <c r="R1" s="2"/>
       <c r="S1" s="9" t="s">
         <v>2700</v>
@@ -19154,14 +19329,12 @@
       </c>
       <c r="W1" s="9"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="2" t="s">
         <v>2702</v>
       </c>
-      <c r="Z1" s="9"/>
+      <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="2" t="s">
-        <v>2703</v>
-      </c>
+      <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -19184,21 +19357,22 @@
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-    </row>
-    <row r="2" spans="1:53" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2758</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>2696</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
@@ -19209,26 +19383,26 @@
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="2"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="9"/>
+      <c r="V2" s="11"/>
       <c r="W2" s="9"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="9"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="AF2" t="s">
+        <v>2703</v>
+      </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -19247,37 +19421,36 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-    </row>
-    <row r="3" spans="1:53" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:50" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="2"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="9"/>
+      <c r="V3" s="11"/>
       <c r="W3" s="9"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="9"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
+      <c r="AF3" t="s">
+        <v>2704</v>
+      </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -19296,11 +19469,8 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2488</v>
       </c>
@@ -19326,49 +19496,46 @@
         <v>500</v>
       </c>
       <c r="M4" t="s">
-        <v>2522</v>
+        <v>2578</v>
       </c>
       <c r="N4">
         <v>50</v>
       </c>
-      <c r="P4" t="s">
-        <v>2578</v>
-      </c>
-      <c r="Q4">
+      <c r="P4" s="6" t="s">
+        <v>2534</v>
+      </c>
+      <c r="Q4" s="6">
         <v>50</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>2534</v>
+        <v>2569</v>
       </c>
       <c r="T4" s="6">
         <v>50</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>2569</v>
+        <v>2557</v>
       </c>
       <c r="W4" s="6">
         <v>50</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>2557</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="Y4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="Z4">
         <v>50</v>
       </c>
       <c r="AB4" t="s">
-        <v>2497</v>
+        <v>2511</v>
       </c>
       <c r="AC4">
         <v>50</v>
       </c>
-      <c r="AE4" t="s">
-        <v>2511</v>
-      </c>
-      <c r="AF4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2492</v>
       </c>
@@ -19394,43 +19561,40 @@
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>2580</v>
+        <v>2501</v>
       </c>
       <c r="N5">
         <v>50</v>
       </c>
-      <c r="P5" t="s">
-        <v>2501</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="Q5" s="6">
         <v>50</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>2560</v>
+        <v>2592</v>
       </c>
       <c r="T5" s="6">
         <v>50</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>2592</v>
+        <v>2570</v>
       </c>
       <c r="W5" s="6">
         <v>50</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>2570</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>50</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="Y5" t="s">
         <v>2663</v>
       </c>
-      <c r="AC5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2482</v>
       </c>
@@ -19456,43 +19620,40 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>2581</v>
+        <v>2502</v>
       </c>
       <c r="N6">
         <v>50</v>
       </c>
-      <c r="P6" t="s">
-        <v>2502</v>
-      </c>
-      <c r="Q6">
+      <c r="P6" s="6" t="s">
+        <v>2572</v>
+      </c>
+      <c r="Q6" s="6">
         <v>50</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="T6" s="6">
         <v>50</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>2576</v>
+        <v>2617</v>
       </c>
       <c r="W6" s="6">
         <v>50</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>2617</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>50</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="Y6" t="s">
         <v>2667</v>
       </c>
-      <c r="AC6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>50</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>2484</v>
       </c>
@@ -19518,37 +19679,34 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>2582</v>
+        <v>2504</v>
       </c>
       <c r="N7">
         <v>50</v>
       </c>
-      <c r="P7" t="s">
-        <v>2504</v>
-      </c>
-      <c r="Q7">
+      <c r="P7" s="6" t="s">
+        <v>2593</v>
+      </c>
+      <c r="Q7" s="6">
         <v>50</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="T7" s="6">
         <v>50</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>2590</v>
+        <v>2624</v>
       </c>
       <c r="W7" s="6">
         <v>50</v>
       </c>
-      <c r="Y7" s="6" t="s">
-        <v>2624</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AF7" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>2659</v>
       </c>
@@ -19574,31 +19732,28 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>2613</v>
+        <v>2505</v>
       </c>
       <c r="N8">
         <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>2505</v>
+        <v>2625</v>
       </c>
       <c r="Q8">
         <v>50</v>
       </c>
-      <c r="S8" t="s">
-        <v>2625</v>
-      </c>
-      <c r="T8">
-        <v>50</v>
-      </c>
-      <c r="V8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>2651</v>
       </c>
-      <c r="W8" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T8" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2507</v>
       </c>
@@ -19623,20 +19778,23 @@
       <c r="K9">
         <v>50</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M9" t="s">
         <v>2523</v>
       </c>
-      <c r="Q9">
-        <v>50</v>
-      </c>
-      <c r="V9" s="6" t="s">
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>2605</v>
       </c>
-      <c r="W9" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T9" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2508</v>
       </c>
@@ -19661,20 +19819,23 @@
       <c r="K10">
         <v>50</v>
       </c>
-      <c r="P10" t="s">
+      <c r="M10" t="s">
         <v>2524</v>
       </c>
-      <c r="Q10">
-        <v>50</v>
-      </c>
-      <c r="V10" s="6" t="s">
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>2607</v>
       </c>
-      <c r="W10" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T10" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2519</v>
       </c>
@@ -19699,20 +19860,23 @@
       <c r="K11">
         <v>50</v>
       </c>
-      <c r="P11" t="s">
+      <c r="M11" t="s">
         <v>2527</v>
       </c>
-      <c r="Q11">
-        <v>50</v>
-      </c>
-      <c r="V11" s="6" t="s">
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>2655</v>
       </c>
-      <c r="W11" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T11" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2603</v>
       </c>
@@ -19737,20 +19901,23 @@
       <c r="K12">
         <v>50</v>
       </c>
-      <c r="P12" t="s">
+      <c r="M12" t="s">
         <v>2532</v>
       </c>
-      <c r="Q12">
-        <v>50</v>
-      </c>
-      <c r="V12" s="6" t="s">
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>2661</v>
       </c>
-      <c r="W12" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T12" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>2489</v>
       </c>
@@ -19775,20 +19942,23 @@
       <c r="K13">
         <v>50</v>
       </c>
-      <c r="P13" t="s">
+      <c r="M13" t="s">
         <v>2550</v>
       </c>
-      <c r="Q13">
-        <v>50</v>
-      </c>
-      <c r="V13" s="6" t="s">
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>2662</v>
       </c>
-      <c r="W13" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T13" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>2490</v>
       </c>
@@ -19813,20 +19983,23 @@
       <c r="K14">
         <v>50</v>
       </c>
-      <c r="P14" t="s">
+      <c r="M14" t="s">
         <v>2551</v>
       </c>
-      <c r="Q14">
-        <v>50</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
         <v>2520</v>
       </c>
-      <c r="W14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>50</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2491</v>
       </c>
@@ -19851,14 +20024,17 @@
       <c r="K15">
         <v>50</v>
       </c>
-      <c r="P15" t="s">
+      <c r="M15" t="s">
         <v>2602</v>
       </c>
-      <c r="Q15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>50</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>2493</v>
       </c>
@@ -19883,14 +20059,17 @@
       <c r="K16">
         <v>50</v>
       </c>
-      <c r="P16" t="s">
+      <c r="M16" t="s">
         <v>2643</v>
       </c>
-      <c r="Q16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>2498</v>
       </c>
@@ -19915,14 +20094,17 @@
       <c r="K17">
         <v>50</v>
       </c>
-      <c r="P17" t="s">
+      <c r="M17" t="s">
         <v>2664</v>
       </c>
-      <c r="Q17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>2499</v>
       </c>
@@ -19947,14 +20129,17 @@
       <c r="K18">
         <v>50</v>
       </c>
-      <c r="P18" t="s">
+      <c r="M18" t="s">
         <v>2668</v>
       </c>
-      <c r="Q18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>2503</v>
       </c>
@@ -19979,14 +20164,17 @@
       <c r="K19">
         <v>50</v>
       </c>
-      <c r="P19" t="s">
+      <c r="M19" t="s">
         <v>2677</v>
       </c>
-      <c r="Q19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>2506</v>
       </c>
@@ -19999,20 +20187,29 @@
       <c r="E20">
         <v>50</v>
       </c>
+      <c r="G20" t="s">
+        <v>2522</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
       <c r="J20" t="s">
         <v>2674</v>
       </c>
       <c r="K20">
         <v>50</v>
       </c>
-      <c r="P20" t="s">
+      <c r="M20" t="s">
         <v>2683</v>
       </c>
-      <c r="Q20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>50</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>2509</v>
       </c>
@@ -20025,20 +20222,29 @@
       <c r="E21">
         <v>50</v>
       </c>
+      <c r="G21" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
       <c r="J21" t="s">
         <v>2588</v>
       </c>
       <c r="K21">
         <v>50</v>
       </c>
-      <c r="P21" t="s">
+      <c r="M21" t="s">
         <v>2684</v>
       </c>
-      <c r="Q21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>50</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>2510</v>
       </c>
@@ -20051,14 +20257,23 @@
       <c r="E22">
         <v>50</v>
       </c>
-      <c r="P22" t="s">
+      <c r="G22" t="s">
+        <v>2581</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
         <v>2646</v>
       </c>
-      <c r="Q22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>50</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>2525</v>
       </c>
@@ -20071,14 +20286,23 @@
       <c r="E23">
         <v>50</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="G23" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>2615</v>
       </c>
-      <c r="Q23" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N23" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>2526</v>
       </c>
@@ -20091,8 +20315,17 @@
       <c r="E24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>2613</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>2529</v>
       </c>
@@ -20105,8 +20338,11 @@
       <c r="E25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF25" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>2530</v>
       </c>
@@ -20119,16 +20355,22 @@
       <c r="E26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF26" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>2565</v>
       </c>
       <c r="E27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF27" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>2537</v>
       </c>
@@ -20141,8 +20383,11 @@
       <c r="E28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF28" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>2538</v>
       </c>
@@ -20155,8 +20400,11 @@
       <c r="E29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF29" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>2539</v>
       </c>
@@ -20169,8 +20417,11 @@
       <c r="E30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF30" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>2542</v>
       </c>
@@ -20183,8 +20434,11 @@
       <c r="E31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AF31" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>2543</v>
       </c>
@@ -20197,8 +20451,11 @@
       <c r="E32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF32" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>2544</v>
       </c>
@@ -20211,8 +20468,11 @@
       <c r="E33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF33" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>2546</v>
       </c>
@@ -20225,8 +20485,11 @@
       <c r="E34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF34" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>2547</v>
       </c>
@@ -20239,8 +20502,11 @@
       <c r="E35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF35" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>2548</v>
       </c>
@@ -20253,8 +20519,11 @@
       <c r="E36">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF36" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>2552</v>
       </c>
@@ -20267,8 +20536,11 @@
       <c r="E37">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF37" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>2553</v>
       </c>
@@ -20281,8 +20553,11 @@
       <c r="E38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF38" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>2554</v>
       </c>
@@ -20295,8 +20570,11 @@
       <c r="E39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF39" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>2555</v>
       </c>
@@ -20309,8 +20587,11 @@
       <c r="E40">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF40" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>2556</v>
       </c>
@@ -20323,16 +20604,22 @@
       <c r="E41">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF41" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>2612</v>
       </c>
       <c r="E42">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF42" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>2558</v>
       </c>
@@ -20345,8 +20632,11 @@
       <c r="E43">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF43" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>2563</v>
       </c>
@@ -20359,24 +20649,33 @@
       <c r="E44">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF44" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>2641</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF45" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>2642</v>
       </c>
       <c r="E46">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF46" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>2571</v>
       </c>
@@ -20389,16 +20688,22 @@
       <c r="E47">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF47" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>2645</v>
       </c>
       <c r="E48">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF48" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>2585</v>
       </c>
@@ -20411,8 +20716,11 @@
       <c r="E49">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF49" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>2586</v>
       </c>
@@ -20425,8 +20733,11 @@
       <c r="E50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF50" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>2587</v>
       </c>
@@ -20439,8 +20750,11 @@
       <c r="E51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF51" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>2591</v>
       </c>
@@ -20453,24 +20767,33 @@
       <c r="E52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF52" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>2671</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF53" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>2673</v>
       </c>
       <c r="E54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF54" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>2600</v>
       </c>
@@ -20483,8 +20806,11 @@
       <c r="E55">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF55" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>2604</v>
       </c>
@@ -20497,8 +20823,11 @@
       <c r="E56">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AF56" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>2609</v>
       </c>
@@ -20512,7 +20841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>2614</v>
       </c>
@@ -20526,7 +20855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>2686</v>
       </c>
@@ -20534,7 +20863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>2616</v>
       </c>
@@ -20548,7 +20877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>2688</v>
       </c>
@@ -20556,7 +20885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>2619</v>
       </c>
@@ -20570,7 +20899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>2627</v>
       </c>
@@ -20584,7 +20913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>2628</v>
       </c>

--- a/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хозяйственные товары.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="2760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="2787">
   <si>
     <t>веник сорго</t>
   </si>
@@ -8246,18 +8246,6 @@
     <t>перчатки с точечным покрытием,</t>
   </si>
   <si>
-    <t>рабочие рукавицы,</t>
-  </si>
-  <si>
-    <t>Хб рукавицы рабочие,</t>
-  </si>
-  <si>
-    <t>перчатки рабочие хб,</t>
-  </si>
-  <si>
-    <t>перчатки хб рабочие,</t>
-  </si>
-  <si>
     <t>перчатки тканевые рабочие,</t>
   </si>
   <si>
@@ -8267,61 +8255,154 @@
     <t>строительные рукавицы,</t>
   </si>
   <si>
-    <t>перчатки рабочие хб с пвх,</t>
-  </si>
-  <si>
-    <t>рабочие перчатки хб,</t>
-  </si>
-  <si>
-    <t>строительный перчатки,</t>
-  </si>
-  <si>
-    <t>рабочии перчатки,</t>
-  </si>
-  <si>
-    <t>перчатки рабочие с пвх точкой,</t>
-  </si>
-  <si>
     <t>тонкие рабочие перчатки,</t>
   </si>
   <si>
     <t>черные строительные перчатки,</t>
   </si>
   <si>
-    <t>перчатки рабочие с пвх,</t>
-  </si>
-  <si>
     <t>перчатки черные рабочие,</t>
   </si>
   <si>
-    <t>перчатки хб строительные,</t>
-  </si>
-  <si>
     <t>хорошие рабочие перчатки,</t>
   </si>
   <si>
     <t>перчатки строительные тонкие,</t>
   </si>
   <si>
-    <t>рабочие перчатки хб с пвх,</t>
-  </si>
-  <si>
-    <t>перчатки хб,</t>
-  </si>
-  <si>
-    <t>перчатки рабочие пвх,</t>
-  </si>
-  <si>
     <t>тонкие строительные перчатки,</t>
   </si>
   <si>
-    <t>перчатка рабочий,</t>
-  </si>
-  <si>
     <t>Рабочие строительные перчатки</t>
   </si>
   <si>
     <t>Перчатки рабочие трикотажные черные с пвх  точкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>перчатки рабочие теплые,</t>
+  </si>
+  <si>
+    <t>зимние перчатки рабочие,</t>
+  </si>
+  <si>
+    <t>зимние рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>зимние рабочие рукавицы,</t>
+  </si>
+  <si>
+    <t>зимние строительные перчатки,</t>
+  </si>
+  <si>
+    <t>перчатки зимние мужские рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки зимние рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки зимние строительные,</t>
+  </si>
+  <si>
+    <t>перчатки монтажные зимние,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие зима,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие зимние,</t>
+  </si>
+  <si>
+    <t>перчатки строительные зимние,</t>
+  </si>
+  <si>
+    <t>рабочие зимние перчатки,</t>
+  </si>
+  <si>
+    <t>рукавицы зимние рабочие,</t>
+  </si>
+  <si>
+    <t>рукавицы рабочие зимние,</t>
+  </si>
+  <si>
+    <t>спецодежда перчатки зимние,</t>
+  </si>
+  <si>
+    <t>теплые рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>теплые строительные перчатки,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки зимние,</t>
+  </si>
+  <si>
+    <t>перчатки хб зимние,</t>
+  </si>
+  <si>
+    <t>перчатки монтажные спилковые,</t>
+  </si>
+  <si>
+    <t>перчатки рабочие спилковые,</t>
+  </si>
+  <si>
+    <t>перчатки спилковые рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки строительные профессиональные,</t>
+  </si>
+  <si>
+    <t>перчатки теплые рабочие,</t>
+  </si>
+  <si>
+    <t>перчатки тканевые прорезиненные,</t>
+  </si>
+  <si>
+    <t>профессиональные рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>профессиональные строительные перчатки,</t>
+  </si>
+  <si>
+    <t>рабочие защитные перчатки,</t>
+  </si>
+  <si>
+    <t>рабочие кожаные перчатки,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки без пальцев,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки из кожи,</t>
+  </si>
+  <si>
+    <t>рабочие перчатки кожаные,</t>
+  </si>
+  <si>
+    <t>рабочий перчатки,</t>
+  </si>
+  <si>
+    <t>рукавицы кожаные рабочие,</t>
+  </si>
+  <si>
+    <t>рукавицы теплые рабочие,</t>
+  </si>
+  <si>
+    <t>спецовки перчатки,</t>
+  </si>
+  <si>
+    <t>спецодежда перчатки,</t>
+  </si>
+  <si>
+    <t>строительная перчатка,</t>
+  </si>
+  <si>
+    <t>тёплые рабочие перчатки,</t>
+  </si>
+  <si>
+    <t>черные рабочие перчатки,</t>
   </si>
 </sst>
 </file>
@@ -19259,8 +19340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AF83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19297,7 +19378,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>2759</v>
+        <v>2744</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
@@ -19365,7 +19446,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2758</v>
+        <v>2743</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -19400,9 +19481,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" t="s">
-        <v>2703</v>
-      </c>
+      <c r="AF2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -19449,7 +19528,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" t="s">
-        <v>2704</v>
+        <v>2746</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -19532,7 +19611,7 @@
         <v>50</v>
       </c>
       <c r="AF4" t="s">
-        <v>2705</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -19591,7 +19670,7 @@
         <v>50</v>
       </c>
       <c r="AF5" t="s">
-        <v>2706</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
@@ -19650,7 +19729,7 @@
         <v>50</v>
       </c>
       <c r="AF6" t="s">
-        <v>2707</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
@@ -19703,7 +19782,7 @@
         <v>50</v>
       </c>
       <c r="AF7" t="s">
-        <v>2708</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
@@ -19750,7 +19829,7 @@
         <v>50</v>
       </c>
       <c r="AF8" t="s">
-        <v>2709</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
@@ -19791,7 +19870,7 @@
         <v>50</v>
       </c>
       <c r="AF9" t="s">
-        <v>2710</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -19832,7 +19911,7 @@
         <v>50</v>
       </c>
       <c r="AF10" t="s">
-        <v>2711</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -19873,7 +19952,7 @@
         <v>50</v>
       </c>
       <c r="AF11" t="s">
-        <v>2712</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
@@ -19914,7 +19993,7 @@
         <v>50</v>
       </c>
       <c r="AF12" t="s">
-        <v>2713</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
@@ -19955,7 +20034,7 @@
         <v>50</v>
       </c>
       <c r="AF13" t="s">
-        <v>2714</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
@@ -19996,7 +20075,7 @@
         <v>50</v>
       </c>
       <c r="AF14" t="s">
-        <v>2715</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
@@ -20031,7 +20110,7 @@
         <v>50</v>
       </c>
       <c r="AF15" t="s">
-        <v>2716</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
@@ -20066,7 +20145,7 @@
         <v>50</v>
       </c>
       <c r="AF16" t="s">
-        <v>2717</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -20101,7 +20180,7 @@
         <v>50</v>
       </c>
       <c r="AF17" t="s">
-        <v>2718</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -20136,7 +20215,7 @@
         <v>50</v>
       </c>
       <c r="AF18" t="s">
-        <v>2719</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -20171,7 +20250,7 @@
         <v>50</v>
       </c>
       <c r="AF19" t="s">
-        <v>2720</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -20206,7 +20285,7 @@
         <v>50</v>
       </c>
       <c r="AF20" t="s">
-        <v>2721</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -20241,7 +20320,7 @@
         <v>50</v>
       </c>
       <c r="AF21" t="s">
-        <v>2722</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -20270,7 +20349,7 @@
         <v>50</v>
       </c>
       <c r="AF22" t="s">
-        <v>2723</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -20292,6 +20371,9 @@
       <c r="H23">
         <v>50</v>
       </c>
+      <c r="J23" t="s">
+        <v>2745</v>
+      </c>
       <c r="M23" s="6" t="s">
         <v>2615</v>
       </c>
@@ -20299,7 +20381,7 @@
         <v>50</v>
       </c>
       <c r="AF23" t="s">
-        <v>2724</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -20322,7 +20404,7 @@
         <v>50</v>
       </c>
       <c r="AF24" t="s">
-        <v>2725</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -20339,7 +20421,7 @@
         <v>50</v>
       </c>
       <c r="AF25" t="s">
-        <v>2726</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -20356,7 +20438,7 @@
         <v>50</v>
       </c>
       <c r="AF26" t="s">
-        <v>2727</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -20367,7 +20449,7 @@
         <v>50</v>
       </c>
       <c r="AF27" t="s">
-        <v>2728</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
@@ -20384,7 +20466,7 @@
         <v>50</v>
       </c>
       <c r="AF28" t="s">
-        <v>2729</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -20401,7 +20483,7 @@
         <v>50</v>
       </c>
       <c r="AF29" t="s">
-        <v>2730</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -20418,7 +20500,7 @@
         <v>50</v>
       </c>
       <c r="AF30" t="s">
-        <v>2731</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -20435,7 +20517,7 @@
         <v>50</v>
       </c>
       <c r="AF31" t="s">
-        <v>2732</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -20452,7 +20534,7 @@
         <v>50</v>
       </c>
       <c r="AF32" t="s">
-        <v>2733</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -20469,7 +20551,7 @@
         <v>50</v>
       </c>
       <c r="AF33" t="s">
-        <v>2734</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -20486,7 +20568,7 @@
         <v>50</v>
       </c>
       <c r="AF34" t="s">
-        <v>2735</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -20503,7 +20585,7 @@
         <v>50</v>
       </c>
       <c r="AF35" t="s">
-        <v>2736</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -20520,7 +20602,7 @@
         <v>50</v>
       </c>
       <c r="AF36" t="s">
-        <v>2737</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -20537,7 +20619,7 @@
         <v>50</v>
       </c>
       <c r="AF37" t="s">
-        <v>2738</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -20554,7 +20636,7 @@
         <v>50</v>
       </c>
       <c r="AF38" t="s">
-        <v>2739</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -20571,7 +20653,7 @@
         <v>50</v>
       </c>
       <c r="AF39" t="s">
-        <v>2740</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -20588,7 +20670,7 @@
         <v>50</v>
       </c>
       <c r="AF40" t="s">
-        <v>2741</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -20605,7 +20687,7 @@
         <v>50</v>
       </c>
       <c r="AF41" t="s">
-        <v>2742</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -20616,7 +20698,7 @@
         <v>50</v>
       </c>
       <c r="AF42" t="s">
-        <v>2743</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -20633,7 +20715,7 @@
         <v>50</v>
       </c>
       <c r="AF43" t="s">
-        <v>2744</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -20650,7 +20732,7 @@
         <v>50</v>
       </c>
       <c r="AF44" t="s">
-        <v>2745</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -20661,7 +20743,7 @@
         <v>50</v>
       </c>
       <c r="AF45" t="s">
-        <v>2746</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -20672,7 +20754,7 @@
         <v>50</v>
       </c>
       <c r="AF46" t="s">
-        <v>2747</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -20689,7 +20771,7 @@
         <v>50</v>
       </c>
       <c r="AF47" t="s">
-        <v>2748</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -20700,7 +20782,7 @@
         <v>50</v>
       </c>
       <c r="AF48" t="s">
-        <v>2749</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -20717,7 +20799,7 @@
         <v>50</v>
       </c>
       <c r="AF49" t="s">
-        <v>2750</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
@@ -20734,7 +20816,7 @@
         <v>50</v>
       </c>
       <c r="AF50" t="s">
-        <v>2751</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
@@ -20751,7 +20833,7 @@
         <v>50</v>
       </c>
       <c r="AF51" t="s">
-        <v>2752</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -20768,7 +20850,7 @@
         <v>50</v>
       </c>
       <c r="AF52" t="s">
-        <v>2753</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -20779,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="AF53" t="s">
-        <v>2754</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -20790,7 +20872,7 @@
         <v>50</v>
       </c>
       <c r="AF54" t="s">
-        <v>2755</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -20807,7 +20889,7 @@
         <v>50</v>
       </c>
       <c r="AF55" t="s">
-        <v>2756</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -20824,7 +20906,7 @@
         <v>50</v>
       </c>
       <c r="AF56" t="s">
-        <v>2757</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -20840,6 +20922,9 @@
       <c r="E57">
         <v>50</v>
       </c>
+      <c r="AF57" t="s">
+        <v>2769</v>
+      </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
@@ -20854,6 +20939,9 @@
       <c r="E58">
         <v>50</v>
       </c>
+      <c r="AF58" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
@@ -20862,6 +20950,9 @@
       <c r="E59">
         <v>50</v>
       </c>
+      <c r="AF59" t="s">
+        <v>2770</v>
+      </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
@@ -20876,6 +20967,9 @@
       <c r="E60">
         <v>50</v>
       </c>
+      <c r="AF60" t="s">
+        <v>2771</v>
+      </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
@@ -20884,6 +20978,9 @@
       <c r="E61">
         <v>50</v>
       </c>
+      <c r="AF61" t="s">
+        <v>2734</v>
+      </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -20898,6 +20995,9 @@
       <c r="E62">
         <v>50</v>
       </c>
+      <c r="AF62" t="s">
+        <v>2739</v>
+      </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
@@ -20912,6 +21012,9 @@
       <c r="E63">
         <v>50</v>
       </c>
+      <c r="AF63" t="s">
+        <v>2772</v>
+      </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
@@ -20926,144 +21029,208 @@
       <c r="E64">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF64" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>2630</v>
       </c>
       <c r="B65" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF65" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>2634</v>
       </c>
       <c r="B66" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF66" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>2636</v>
       </c>
       <c r="B67" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF67" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>2639</v>
       </c>
       <c r="B68" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF68" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>2648</v>
       </c>
       <c r="B69" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF69" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>2650</v>
       </c>
       <c r="B70" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF70" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF71" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>2652</v>
       </c>
       <c r="B72" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF72" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>2654</v>
       </c>
       <c r="B73" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF73" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF74" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>2656</v>
       </c>
       <c r="B75" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF75" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>2657</v>
       </c>
       <c r="B76" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF76" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>2658</v>
       </c>
       <c r="B77" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF77" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>2669</v>
       </c>
       <c r="B78" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF78" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>2670</v>
       </c>
       <c r="B79" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF79" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>2672</v>
       </c>
       <c r="B80" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF80" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>2679</v>
       </c>
       <c r="B81" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF81" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>2680</v>
       </c>
       <c r="B82" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF82" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>2681</v>
       </c>
       <c r="B83" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AF83" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>2685</v>
       </c>
@@ -21071,7 +21238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>2692</v>
       </c>
